--- a/solution.xlsx
+++ b/solution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ausgabe" localSheetId="0" hidden="1">Tabelle1!$A$1:$P$706</definedName>
+    <definedName name="ausgabe" localSheetId="0" hidden="1">Tabelle1!$A$1:$P$719</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7198" uniqueCount="1344">
   <si>
     <t>Spalte1</t>
   </si>
@@ -4033,6 +4033,84 @@
   </si>
   <si>
     <t>74_1_2_3_4_8_9_16_5_64_55_6_7_11_13_39_10_22_33_34_14_20_30_32_27_44_28_38_45_21_41_52_12_23_90_43_71_76_17_18_31_51_37_42_40_62_67_108_15_29_26_35_79_80_58_19_48_59_65_69_24_36_60_83_89_109_25_56_57_46_54_61_73_74_75_77_68_81_70_50_53_86_93_47_82_91_105_66_96_97_72_84_94_78_87_111_99_63_98_95_85_102_110_101_88_104_92_112_113_103_115_114_49_117_107_100_106_118_121_119_116_120_122</t>
+  </si>
+  <si>
+    <t>instances\j1204_6.sm</t>
+  </si>
+  <si>
+    <t>90_1_2_3_4_5_19_32_7_60_91_17_23_42_70_6_10_14_20_30_43_22_52_64_37_71_9_16_24_8_44_45_48_63_82_38_67_68_99_55_88_100_11_13_15_26_50_29_18_21_57_28_35_25_47_80_97_101_40_51_53_33_36_39_34_61_62_12_59_78_94_41_31_76_46_84_90_49_72_56_77_86_93_95_98_65_74_96_81_75_87_121_54_79_92_27_105_107_106_118_102_83_103_104_66_73_69_58_113_112_85_89_109_114_111_108_115_110_116_117_120_119_122</t>
+  </si>
+  <si>
+    <t>instances\j1204_7.sm</t>
+  </si>
+  <si>
+    <t>85_1_2_3_4_81_5_6_7_8_12_23_9_15_17_24_31_11_47_70_10_29_50_18_35_13_42_55_36_45_60_14_19_53_56_61_26_27_33_58_59_16_22_46_21_25_62_32_48_67_76_28_51_34_37_63_73_77_40_41_82_64_83_39_43_57_66_98_20_95_49_68_88_30_65_74_107_80_44_72_38_75_69_78_85_96_71_79_90_84_92_93_110_52_54_91_87_89_97_99_105_86_94_117_100_111_114_108_102_101_118_109_115_121_104_103_106_116_120_112_113_119_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_1.sm</t>
+  </si>
+  <si>
+    <t>116_1_2_3_4_5_6_10_7_9_28_8_29_99_14_19_21_11_16_38_46_12_17_23_25_35_13_15_32_18_31_44_40_54_37_56_34_50_20_26_43_22_24_63_65_42_47_64_27_41_36_49_67_45_53_86_30_39_58_55_33_59_66_69_51_48_74_80_52_77_62_79_82_97_106_71_70_75_76_60_61_57_81_84_85_93_108_110_73_103_107_83_87_88_89_90_98_111_113_68_92_96_105_101_72_115_114_104_78_91_112_94_95_100_116_117_118_120_102_121_109_119_122</t>
+  </si>
+  <si>
+    <t>instances\j1204_8.sm</t>
+  </si>
+  <si>
+    <t>90_1_2_3_4_35_100_5_6_7_8_11_13_39_74_10_17_48_9_23_30_33_72_12_14_57_104_32_47_55_66_21_38_86_18_73_16_24_27_51_28_15_31_36_25_37_40_53_58_62_20_43_65_78_64_75_83_98_50_59_19_76_84_29_42_46_68_87_26_45_61_77_97_63_115_34_71_80_81_85_54_60_89_69_22_99_41_44_67_88_92_94_95_93_82_49_102_106_121_70_107_110_52_56_101_79_90_96_105_91_114_103_113_108_109_111_116_112_118_117_120_119_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_3.sm</t>
+  </si>
+  <si>
+    <t>111_1_2_3_4_6_7_8_5_10_14_17_20_42_12_15_11_37_49_9_23_25_26_29_19_53_13_21_47_30_92_31_35_52_24_40_56_18_22_32_33_34_43_79_61_38_39_45_77_50_54_70_27_57_60_62_72_46_28_80_58_36_44_48_64_67_78_41_90_59_63_66_85_88_65_69_93_68_74_16_73_95_106_71_75_81_105_110_51_55_76_97_91_83_86_82_96_102_94_89_84_109_87_100_98_99_101_113_103_107_111_112_108_115_104_114_120_116_118_117_119_121_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_10.sm</t>
+  </si>
+  <si>
+    <t>108_1_2_3_4_6_17_25_5_48_7_14_10_15_51_26_39_8_18_20_37_9_56_58_13_16_49_33_79_24_21_23_30_38_11_32_35_36_59_61_34_22_42_44_53_27_41_43_120_28_40_74_29_46_60_31_65_68_45_52_57_55_71_77_50_70_47_54_82_96_12_75_19_66_62_89_67_72_86_87_95_84_98_64_69_73_90_97_78_93_100_63_92_76_94_104_102_83_91_81_80_101_88_85_105_106_108_113_114_103_107_99_111_109_110_116_115_112_118_117_119_121_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_7.sm</t>
+  </si>
+  <si>
+    <t>137_1_2_3_4_10_14_36_23_5_6_31_7_15_68_21_24_32_44_47_45_53_8_9_12_11_19_22_40_73_75_81_13_25_29_35_41_20_26_70_49_16_82_87_17_63_18_56_27_28_42_57_80_30_33_34_37_38_58_84_43_46_78_50_59_39_52_54_86_55_79_93_94_51_60_62_48_61_64_89_71_67_72_88_101_69_77_83_90_100_74_85_92_66_104_102_91_115_108_109_120_76_96_97_111_95_116_110_112_107_99_65_117_103_98_105_113_114_106_121_118_119_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_8.sm</t>
+  </si>
+  <si>
+    <t>112_1_2_3_4_8_34_5_6_7_21_23_11_12_18_10_37_9_14_15_17_54_24_25_28_19_41_61_13_33_46_30_26_35_42_65_22_31_51_58_83_16_44_48_56_62_20_45_60_36_39_49_53_40_43_47_68_89_32_52_55_27_59_76_85_50_67_64_66_29_38_87_95_57_72_75_63_86_69_74_104_70_71_79_80_73_81_84_88_96_97_103_114_92_78_82_91_108_109_100_105_107_118_77_93_106_94_110_113_112_116_101_90_99_111_121_98_102_117_120_115_119_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_6.sm</t>
+  </si>
+  <si>
+    <t>102_1_2_3_4_5_11_20_6_7_9_14_16_21_24_25_26_17_8_10_12_19_33_58_62_15_22_29_34_40_18_43_13_27_35_42_41_30_51_37_53_44_48_31_36_28_39_57_46_68_32_52_60_64_23_45_80_86_47_38_63_65_66_59_114_55_82_56_69_61_72_74_79_49_71_77_54_67_75_78_91_73_76_50_94_88_95_85_96_90_97_101_83_84_89_70_93_98_102_81_87_104_110_99_108_100_106_109_103_111_115_117_92_105_107_113_121_116_112_118_119_120_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_9.sm</t>
+  </si>
+  <si>
+    <t>101_1_2_3_4_5_26_49_7_8_14_6_12_17_27_30_51_13_20_21_47_19_37_9_22_23_11_24_45_31_35_36_10_16_25_40_15_70_39_38_32_34_44_53_57_75_28_41_46_55_56_29_18_71_72_91_43_58_64_60_76_42_54_33_48_62_78_81_82_50_73_63_65_66_68_52_77_89_61_88_83_114_80_109_59_84_67_90_93_96_69_86_98_99_79_92_95_97_106_74_85_94_87_100_101_107_116_104_105_111_102_108_103_110_113_115_112_117_118_121_120_119_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_2.sm</t>
+  </si>
+  <si>
+    <t>115_1_2_3_4_5_19_25_34_6_8_9_26_35_24_10_13_36_11_18_12_15_17_31_33_60_7_41_40_30_42_16_14_48_20_21_22_44_46_61_51_23_27_29_38_52_57_43_47_50_37_67_45_53_32_55_58_63_70_54_56_82_68_84_100_65_59_71_72_80_83_69_39_76_28_62_85_81_86_102_79_95_49_77_89_64_87_88_90_66_96_73_74_93_97_116_75_92_103_106_110_118_98_78_91_114_105_101_94_99_113_104_117_111_115_112_108_107_109_119_120_121_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_4.sm</t>
+  </si>
+  <si>
+    <t>107_1_2_3_4_11_13_15_20_6_7_10_12_30_33_5_17_21_45_23_48_52_16_32_22_8_14_35_28_55_27_31_18_36_38_29_63_25_26_46_24_40_61_56_9_43_44_51_68_37_19_34_58_73_47_62_41_54_59_75_53_49_50_39_42_81_92_78_65_89_67_72_57_69_77_80_66_71_95_60_79_82_88_91_105_83_96_99_70_86_93_94_101_74_108_85_102_76_97_103_90_106_110_64_84_104_87_100_109_115_107_116_98_111_112_113_117_118_114_121_119_120_122</t>
+  </si>
+  <si>
+    <t>instances\j12050_5.sm</t>
+  </si>
+  <si>
+    <t>104_1_2_3_4_5_8_9_11_16_42_28_6_7_12_20_14_10_27_19_22_13_44_46_59_17_30_15_23_26_18_24_33_34_40_21_41_48_45_47_52_25_36_38_43_55_56_29_69_31_61_77_53_80_32_50_101_63_64_49_66_54_76_35_72_90_57_60_62_65_37_71_39_68_82_83_89_67_74_79_107_51_73_91_78_99_75_81_58_70_95_93_102_97_103_106_84_85_108_86_92_96_98_100_105_87_104_88_116_114_109_112_94_110_111_115_118_113_119_117_121_120_122</t>
   </si>
 </sst>
 </file>
@@ -4124,15 +4202,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle_ausgabe" displayName="Tabelle_ausgabe" ref="A1:Q707" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:Q706">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle_ausgabe" displayName="Tabelle_ausgabe" ref="A1:Q720" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:Q719">
     <filterColumn colId="16">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:Q706">
+  <sortState ref="A2:Q719">
     <sortCondition ref="D2:D719"/>
     <sortCondition ref="J2:J719"/>
   </sortState>
@@ -4458,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q707"/>
+  <dimension ref="A1:Q720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E690" workbookViewId="0">
-      <selection activeCell="M711" sqref="M711"/>
+    <sheetView tabSelected="1" topLeftCell="E696" workbookViewId="0">
+      <selection activeCell="N710" sqref="N710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34454,49 +34532,49 @@
         <v>16</v>
       </c>
       <c r="B556" t="s">
-        <v>928</v>
+        <v>1318</v>
       </c>
       <c r="C556" t="s">
         <v>18</v>
       </c>
       <c r="D556">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E556" t="s">
         <v>19</v>
       </c>
       <c r="F556">
-        <v>7448</v>
+        <v>50000</v>
       </c>
       <c r="G556" t="s">
         <v>20</v>
       </c>
       <c r="H556">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="I556" t="s">
         <v>21</v>
       </c>
       <c r="J556">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K556" t="s">
         <v>22</v>
       </c>
       <c r="L556">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M556" t="s">
         <v>23</v>
       </c>
       <c r="N556">
-        <v>0</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="O556" t="s">
         <v>24</v>
       </c>
       <c r="P556" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="Q556">
         <f>IF(D555=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34508,13 +34586,13 @@
         <v>16</v>
       </c>
       <c r="B557" t="s">
-        <v>929</v>
+        <v>1320</v>
       </c>
       <c r="C557" t="s">
         <v>18</v>
       </c>
       <c r="D557">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E557" t="s">
         <v>19</v>
@@ -34526,31 +34604,31 @@
         <v>20</v>
       </c>
       <c r="H557">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="I557" t="s">
         <v>21</v>
       </c>
       <c r="J557">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="K557" t="s">
         <v>22</v>
       </c>
       <c r="L557">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M557" t="s">
         <v>23</v>
       </c>
       <c r="N557">
-        <v>1.36</v>
+        <v>4.9382716049382699E-2</v>
       </c>
       <c r="O557" t="s">
         <v>24</v>
       </c>
       <c r="P557" t="s">
-        <v>930</v>
+        <v>1321</v>
       </c>
       <c r="Q557">
         <f>IF(D556=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34562,49 +34640,49 @@
         <v>16</v>
       </c>
       <c r="B558" t="s">
-        <v>931</v>
+        <v>1324</v>
       </c>
       <c r="C558" t="s">
         <v>18</v>
       </c>
       <c r="D558">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="E558" t="s">
         <v>19</v>
       </c>
       <c r="F558">
-        <v>50000</v>
+        <v>49144</v>
       </c>
       <c r="G558" t="s">
         <v>20</v>
       </c>
       <c r="H558">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="I558" t="s">
         <v>21</v>
       </c>
       <c r="J558">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="K558" t="s">
         <v>22</v>
       </c>
       <c r="L558">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="M558" t="s">
         <v>23</v>
       </c>
       <c r="N558">
-        <v>1.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="O558" t="s">
         <v>24</v>
       </c>
       <c r="P558" t="s">
-        <v>932</v>
+        <v>1325</v>
       </c>
       <c r="Q558">
         <f>IF(D557=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34616,49 +34694,49 @@
         <v>16</v>
       </c>
       <c r="B559" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C559" t="s">
         <v>18</v>
       </c>
       <c r="D559">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E559" t="s">
         <v>19</v>
       </c>
       <c r="F559">
-        <v>50000</v>
+        <v>7448</v>
       </c>
       <c r="G559" t="s">
         <v>20</v>
       </c>
       <c r="H559">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="I559" t="s">
         <v>21</v>
       </c>
       <c r="J559">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K559" t="s">
         <v>22</v>
       </c>
       <c r="L559">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M559" t="s">
         <v>23</v>
       </c>
       <c r="N559">
-        <v>1.7173913043478199</v>
+        <v>0</v>
       </c>
       <c r="O559" t="s">
         <v>24</v>
       </c>
       <c r="P559" t="s">
-        <v>934</v>
+        <v>1316</v>
       </c>
       <c r="Q559">
         <f>IF(D558=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34670,49 +34748,49 @@
         <v>16</v>
       </c>
       <c r="B560" t="s">
-        <v>935</v>
+        <v>1322</v>
       </c>
       <c r="C560" t="s">
         <v>18</v>
       </c>
       <c r="D560">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="E560" t="s">
         <v>19</v>
       </c>
       <c r="F560">
-        <v>50000</v>
+        <v>35110</v>
       </c>
       <c r="G560" t="s">
         <v>20</v>
       </c>
       <c r="H560">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="I560" t="s">
         <v>21</v>
       </c>
       <c r="J560">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="K560" t="s">
         <v>22</v>
       </c>
       <c r="L560">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="M560" t="s">
         <v>23</v>
       </c>
       <c r="N560">
-        <v>1.6774193548387</v>
+        <v>0</v>
       </c>
       <c r="O560" t="s">
         <v>24</v>
       </c>
       <c r="P560" t="s">
-        <v>936</v>
+        <v>1323</v>
       </c>
       <c r="Q560">
         <f>IF(D559=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34724,13 +34802,13 @@
         <v>16</v>
       </c>
       <c r="B561" t="s">
-        <v>937</v>
+        <v>1328</v>
       </c>
       <c r="C561" t="s">
         <v>18</v>
       </c>
       <c r="D561">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E561" t="s">
         <v>19</v>
@@ -34742,31 +34820,31 @@
         <v>20</v>
       </c>
       <c r="H561">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="I561" t="s">
         <v>21</v>
       </c>
       <c r="J561">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="K561" t="s">
         <v>22</v>
       </c>
       <c r="L561">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M561" t="s">
         <v>23</v>
       </c>
       <c r="N561">
-        <v>1.63736263736263</v>
+        <v>4.85436893203883E-2</v>
       </c>
       <c r="O561" t="s">
         <v>24</v>
       </c>
       <c r="P561" t="s">
-        <v>938</v>
+        <v>1329</v>
       </c>
       <c r="Q561">
         <f>IF(D560=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34778,13 +34856,13 @@
         <v>16</v>
       </c>
       <c r="B562" t="s">
-        <v>939</v>
+        <v>1338</v>
       </c>
       <c r="C562" t="s">
         <v>18</v>
       </c>
       <c r="D562">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E562" t="s">
         <v>19</v>
@@ -34796,31 +34874,31 @@
         <v>20</v>
       </c>
       <c r="H562">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="I562" t="s">
         <v>21</v>
       </c>
       <c r="J562">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="K562" t="s">
         <v>22</v>
       </c>
       <c r="L562">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M562" t="s">
         <v>23</v>
       </c>
       <c r="N562">
-        <v>1.5686274509803899</v>
+        <v>2.6785714285714201E-2</v>
       </c>
       <c r="O562" t="s">
         <v>24</v>
       </c>
       <c r="P562" t="s">
-        <v>940</v>
+        <v>1339</v>
       </c>
       <c r="Q562">
         <f>IF(D561=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34832,49 +34910,49 @@
         <v>16</v>
       </c>
       <c r="B563" t="s">
-        <v>941</v>
+        <v>1326</v>
       </c>
       <c r="C563" t="s">
         <v>18</v>
       </c>
       <c r="D563">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E563" t="s">
         <v>19</v>
       </c>
       <c r="F563">
-        <v>50000</v>
+        <v>17652</v>
       </c>
       <c r="G563" t="s">
         <v>20</v>
       </c>
       <c r="H563">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="I563" t="s">
         <v>21</v>
       </c>
       <c r="J563">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="K563" t="s">
         <v>22</v>
       </c>
       <c r="L563">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M563" t="s">
         <v>23</v>
       </c>
       <c r="N563">
-        <v>1.40384615384615</v>
+        <v>0</v>
       </c>
       <c r="O563" t="s">
         <v>24</v>
       </c>
       <c r="P563" t="s">
-        <v>942</v>
+        <v>1327</v>
       </c>
       <c r="Q563">
         <f>IF(D562=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34886,13 +34964,13 @@
         <v>16</v>
       </c>
       <c r="B564" t="s">
-        <v>943</v>
+        <v>1340</v>
       </c>
       <c r="C564" t="s">
         <v>18</v>
       </c>
       <c r="D564">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E564" t="s">
         <v>19</v>
@@ -34904,31 +34982,31 @@
         <v>20</v>
       </c>
       <c r="H564">
-        <v>407</v>
+        <v>156</v>
       </c>
       <c r="I564" t="s">
         <v>21</v>
       </c>
       <c r="J564">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="K564" t="s">
         <v>22</v>
       </c>
       <c r="L564">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M564" t="s">
         <v>23</v>
       </c>
       <c r="N564">
-        <v>1.6153846153846101</v>
+        <v>0.13829787234042501</v>
       </c>
       <c r="O564" t="s">
         <v>24</v>
       </c>
       <c r="P564" t="s">
-        <v>944</v>
+        <v>1341</v>
       </c>
       <c r="Q564">
         <f>IF(D563=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34940,13 +35018,13 @@
         <v>16</v>
       </c>
       <c r="B565" t="s">
-        <v>945</v>
+        <v>1342</v>
       </c>
       <c r="C565" t="s">
         <v>18</v>
       </c>
       <c r="D565">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E565" t="s">
         <v>19</v>
@@ -34958,31 +35036,31 @@
         <v>20</v>
       </c>
       <c r="H565">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="I565" t="s">
         <v>21</v>
       </c>
       <c r="J565">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="K565" t="s">
         <v>22</v>
       </c>
       <c r="L565">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M565" t="s">
         <v>23</v>
       </c>
       <c r="N565">
-        <v>1.71764705882352</v>
+        <v>0.04</v>
       </c>
       <c r="O565" t="s">
         <v>24</v>
       </c>
       <c r="P565" t="s">
-        <v>946</v>
+        <v>1343</v>
       </c>
       <c r="Q565">
         <f>IF(D564=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -34994,49 +35072,49 @@
         <v>16</v>
       </c>
       <c r="B566" t="s">
-        <v>947</v>
+        <v>1334</v>
       </c>
       <c r="C566" t="s">
         <v>18</v>
       </c>
       <c r="D566">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E566" t="s">
         <v>19</v>
       </c>
       <c r="F566">
-        <v>50000</v>
+        <v>11848</v>
       </c>
       <c r="G566" t="s">
         <v>20</v>
       </c>
       <c r="H566">
-        <v>400</v>
+        <v>163</v>
       </c>
       <c r="I566" t="s">
         <v>21</v>
       </c>
       <c r="J566">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="K566" t="s">
         <v>22</v>
       </c>
       <c r="L566">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M566" t="s">
         <v>23</v>
       </c>
       <c r="N566">
-        <v>1.3365384615384599</v>
+        <v>0</v>
       </c>
       <c r="O566" t="s">
         <v>24</v>
       </c>
       <c r="P566" t="s">
-        <v>948</v>
+        <v>1335</v>
       </c>
       <c r="Q566">
         <f>IF(D565=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35048,49 +35126,49 @@
         <v>16</v>
       </c>
       <c r="B567" t="s">
-        <v>949</v>
+        <v>1330</v>
       </c>
       <c r="C567" t="s">
         <v>18</v>
       </c>
       <c r="D567">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E567" t="s">
         <v>19</v>
       </c>
       <c r="F567">
-        <v>50000</v>
+        <v>54</v>
       </c>
       <c r="G567" t="s">
         <v>20</v>
       </c>
       <c r="H567">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="I567" t="s">
         <v>21</v>
       </c>
       <c r="J567">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="K567" t="s">
         <v>22</v>
       </c>
       <c r="L567">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="M567" t="s">
         <v>23</v>
       </c>
       <c r="N567">
-        <v>0.77876106194690198</v>
+        <v>0</v>
       </c>
       <c r="O567" t="s">
         <v>24</v>
       </c>
       <c r="P567" t="s">
-        <v>950</v>
+        <v>1331</v>
       </c>
       <c r="Q567">
         <f>IF(D566=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35102,49 +35180,49 @@
         <v>16</v>
       </c>
       <c r="B568" t="s">
-        <v>951</v>
+        <v>1332</v>
       </c>
       <c r="C568" t="s">
         <v>18</v>
       </c>
       <c r="D568">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="E568" t="s">
         <v>19</v>
       </c>
       <c r="F568">
-        <v>50000</v>
+        <v>3674</v>
       </c>
       <c r="G568" t="s">
         <v>20</v>
       </c>
       <c r="H568">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="I568" t="s">
         <v>21</v>
       </c>
       <c r="J568">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K568" t="s">
         <v>22</v>
       </c>
       <c r="L568">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="M568" t="s">
         <v>23</v>
       </c>
       <c r="N568">
-        <v>0.84615384615384603</v>
+        <v>0</v>
       </c>
       <c r="O568" t="s">
         <v>24</v>
       </c>
       <c r="P568" t="s">
-        <v>952</v>
+        <v>1333</v>
       </c>
       <c r="Q568">
         <f>IF(D567=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35156,49 +35234,49 @@
         <v>16</v>
       </c>
       <c r="B569" t="s">
-        <v>953</v>
+        <v>1336</v>
       </c>
       <c r="C569" t="s">
         <v>18</v>
       </c>
       <c r="D569">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E569" t="s">
         <v>19</v>
       </c>
       <c r="F569">
-        <v>50000</v>
+        <v>13806</v>
       </c>
       <c r="G569" t="s">
         <v>20</v>
       </c>
       <c r="H569">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="I569" t="s">
         <v>21</v>
       </c>
       <c r="J569">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K569" t="s">
         <v>22</v>
       </c>
       <c r="L569">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M569" t="s">
         <v>23</v>
       </c>
       <c r="N569">
-        <v>0.855855855855855</v>
+        <v>0</v>
       </c>
       <c r="O569" t="s">
         <v>24</v>
       </c>
       <c r="P569" t="s">
-        <v>954</v>
+        <v>1337</v>
       </c>
       <c r="Q569">
         <f>IF(D568=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35210,13 +35288,13 @@
         <v>16</v>
       </c>
       <c r="B570" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
       </c>
       <c r="D570">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E570" t="s">
         <v>19</v>
@@ -35228,31 +35306,31 @@
         <v>20</v>
       </c>
       <c r="H570">
-        <v>252</v>
+        <v>425</v>
       </c>
       <c r="I570" t="s">
         <v>21</v>
       </c>
       <c r="J570">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="K570" t="s">
         <v>22</v>
       </c>
       <c r="L570">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M570" t="s">
         <v>23</v>
       </c>
       <c r="N570">
-        <v>0.46078431372549</v>
+        <v>1.36</v>
       </c>
       <c r="O570" t="s">
         <v>24</v>
       </c>
       <c r="P570" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="Q570" s="1">
         <f>IF(D569=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35264,13 +35342,13 @@
         <v>16</v>
       </c>
       <c r="B571" t="s">
-        <v>957</v>
+        <v>931</v>
       </c>
       <c r="C571" t="s">
         <v>18</v>
       </c>
       <c r="D571">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="E571" t="s">
         <v>19</v>
@@ -35282,31 +35360,31 @@
         <v>20</v>
       </c>
       <c r="H571">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="I571" t="s">
         <v>21</v>
       </c>
       <c r="J571">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="K571" t="s">
         <v>22</v>
       </c>
       <c r="L571">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M571" t="s">
         <v>23</v>
       </c>
       <c r="N571">
-        <v>0.65486725663716805</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="O571" t="s">
         <v>24</v>
       </c>
       <c r="P571" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
       <c r="Q571" s="1">
         <f>IF(D570=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35318,13 +35396,13 @@
         <v>16</v>
       </c>
       <c r="B572" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="C572" t="s">
         <v>18</v>
       </c>
       <c r="D572">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E572" t="s">
         <v>19</v>
@@ -35336,31 +35414,31 @@
         <v>20</v>
       </c>
       <c r="H572">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="I572" t="s">
         <v>21</v>
       </c>
       <c r="J572">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="K572" t="s">
         <v>22</v>
       </c>
       <c r="L572">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M572" t="s">
         <v>23</v>
       </c>
       <c r="N572">
-        <v>0.67256637168141598</v>
+        <v>1.7173913043478199</v>
       </c>
       <c r="O572" t="s">
         <v>24</v>
       </c>
       <c r="P572" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="Q572" s="1">
         <f>IF(D571=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35372,13 +35450,13 @@
         <v>16</v>
       </c>
       <c r="B573" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="C573" t="s">
         <v>18</v>
       </c>
       <c r="D573">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E573" t="s">
         <v>19</v>
@@ -35390,31 +35468,31 @@
         <v>20</v>
       </c>
       <c r="H573">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="I573" t="s">
         <v>21</v>
       </c>
       <c r="J573">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K573" t="s">
         <v>22</v>
       </c>
       <c r="L573">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="M573" t="s">
         <v>23</v>
       </c>
       <c r="N573">
-        <v>0.88983050847457601</v>
+        <v>1.6774193548387</v>
       </c>
       <c r="O573" t="s">
         <v>24</v>
       </c>
       <c r="P573" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="Q573" s="1">
         <f>IF(D572=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35426,13 +35504,13 @@
         <v>16</v>
       </c>
       <c r="B574" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="C574" t="s">
         <v>18</v>
       </c>
       <c r="D574">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E574" t="s">
         <v>19</v>
@@ -35444,31 +35522,31 @@
         <v>20</v>
       </c>
       <c r="H574">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I574" t="s">
         <v>21</v>
       </c>
       <c r="J574">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="K574" t="s">
         <v>22</v>
       </c>
       <c r="L574">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M574" t="s">
         <v>23</v>
       </c>
       <c r="N574">
-        <v>0.73684210526315697</v>
+        <v>1.63736263736263</v>
       </c>
       <c r="O574" t="s">
         <v>24</v>
       </c>
       <c r="P574" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="Q574" s="1">
         <f>IF(D573=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35480,13 +35558,13 @@
         <v>16</v>
       </c>
       <c r="B575" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="C575" t="s">
         <v>18</v>
       </c>
       <c r="D575">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E575" t="s">
         <v>19</v>
@@ -35498,31 +35576,31 @@
         <v>20</v>
       </c>
       <c r="H575">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="I575" t="s">
         <v>21</v>
       </c>
       <c r="J575">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="K575" t="s">
         <v>22</v>
       </c>
       <c r="L575">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M575" t="s">
         <v>23</v>
       </c>
       <c r="N575">
-        <v>0.51754385964912197</v>
+        <v>1.5686274509803899</v>
       </c>
       <c r="O575" t="s">
         <v>24</v>
       </c>
       <c r="P575" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="Q575" s="1">
         <f>IF(D574=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35534,13 +35612,13 @@
         <v>16</v>
       </c>
       <c r="B576" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="C576" t="s">
         <v>18</v>
       </c>
       <c r="D576">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E576" t="s">
         <v>19</v>
@@ -35552,31 +35630,31 @@
         <v>20</v>
       </c>
       <c r="H576">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="I576" t="s">
         <v>21</v>
       </c>
       <c r="J576">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="K576" t="s">
         <v>22</v>
       </c>
       <c r="L576">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M576" t="s">
         <v>23</v>
       </c>
       <c r="N576">
-        <v>0.92045454545454497</v>
+        <v>1.40384615384615</v>
       </c>
       <c r="O576" t="s">
         <v>24</v>
       </c>
       <c r="P576" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="Q576" s="1">
         <f>IF(D575=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35588,13 +35666,13 @@
         <v>16</v>
       </c>
       <c r="B577" t="s">
-        <v>969</v>
+        <v>943</v>
       </c>
       <c r="C577" t="s">
         <v>18</v>
       </c>
       <c r="D577">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E577" t="s">
         <v>19</v>
@@ -35606,31 +35684,31 @@
         <v>20</v>
       </c>
       <c r="H577">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="I577" t="s">
         <v>21</v>
       </c>
       <c r="J577">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="K577" t="s">
         <v>22</v>
       </c>
       <c r="L577">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="M577" t="s">
         <v>23</v>
       </c>
       <c r="N577">
-        <v>0.32520325203251998</v>
+        <v>1.6153846153846101</v>
       </c>
       <c r="O577" t="s">
         <v>24</v>
       </c>
       <c r="P577" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
       <c r="Q577" s="1">
         <f>IF(D576=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35642,13 +35720,13 @@
         <v>16</v>
       </c>
       <c r="B578" t="s">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="C578" t="s">
         <v>18</v>
       </c>
       <c r="D578">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E578" t="s">
         <v>19</v>
@@ -35660,31 +35738,31 @@
         <v>20</v>
       </c>
       <c r="H578">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="I578" t="s">
         <v>21</v>
       </c>
       <c r="J578">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="K578" t="s">
         <v>22</v>
       </c>
       <c r="L578">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M578" t="s">
         <v>23</v>
       </c>
       <c r="N578">
-        <v>0.28828828828828801</v>
+        <v>1.71764705882352</v>
       </c>
       <c r="O578" t="s">
         <v>24</v>
       </c>
       <c r="P578" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="Q578" s="1">
         <f>IF(D577=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35696,13 +35774,13 @@
         <v>16</v>
       </c>
       <c r="B579" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="C579" t="s">
         <v>18</v>
       </c>
       <c r="D579">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E579" t="s">
         <v>19</v>
@@ -35714,31 +35792,31 @@
         <v>20</v>
       </c>
       <c r="H579">
-        <v>262</v>
+        <v>400</v>
       </c>
       <c r="I579" t="s">
         <v>21</v>
       </c>
       <c r="J579">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="K579" t="s">
         <v>22</v>
       </c>
       <c r="L579">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M579" t="s">
         <v>23</v>
       </c>
       <c r="N579">
-        <v>0.16666666666666599</v>
+        <v>1.3365384615384599</v>
       </c>
       <c r="O579" t="s">
         <v>24</v>
       </c>
       <c r="P579" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="Q579" s="1">
         <f>IF(D578=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35750,13 +35828,13 @@
         <v>16</v>
       </c>
       <c r="B580" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="C580" t="s">
         <v>18</v>
       </c>
       <c r="D580">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E580" t="s">
         <v>19</v>
@@ -35768,31 +35846,31 @@
         <v>20</v>
       </c>
       <c r="H580">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="I580" t="s">
         <v>21</v>
       </c>
       <c r="J580">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="K580" t="s">
         <v>22</v>
       </c>
       <c r="L580">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M580" t="s">
         <v>23</v>
       </c>
       <c r="N580">
-        <v>0.18446601941747501</v>
+        <v>0.77876106194690198</v>
       </c>
       <c r="O580" t="s">
         <v>24</v>
       </c>
       <c r="P580" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="Q580" s="1">
         <f>IF(D579=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35804,13 +35882,13 @@
         <v>16</v>
       </c>
       <c r="B581" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="C581" t="s">
         <v>18</v>
       </c>
       <c r="D581">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E581" t="s">
         <v>19</v>
@@ -35822,31 +35900,31 @@
         <v>20</v>
       </c>
       <c r="H581">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="I581" t="s">
         <v>21</v>
       </c>
       <c r="J581">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K581" t="s">
         <v>22</v>
       </c>
       <c r="L581">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="M581" t="s">
         <v>23</v>
       </c>
       <c r="N581">
-        <v>0.33333333333333298</v>
+        <v>0.84615384615384603</v>
       </c>
       <c r="O581" t="s">
         <v>24</v>
       </c>
       <c r="P581" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="Q581" s="1">
         <f>IF(D580=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35858,13 +35936,13 @@
         <v>16</v>
       </c>
       <c r="B582" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="C582" t="s">
         <v>18</v>
       </c>
       <c r="D582">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E582" t="s">
         <v>19</v>
@@ -35876,31 +35954,31 @@
         <v>20</v>
       </c>
       <c r="H582">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="I582" t="s">
         <v>21</v>
       </c>
       <c r="J582">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="K582" t="s">
         <v>22</v>
       </c>
       <c r="L582">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M582" t="s">
         <v>23</v>
       </c>
       <c r="N582">
-        <v>0.30208333333333298</v>
+        <v>0.855855855855855</v>
       </c>
       <c r="O582" t="s">
         <v>24</v>
       </c>
       <c r="P582" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="Q582" s="1">
         <f>IF(D581=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35912,13 +35990,13 @@
         <v>16</v>
       </c>
       <c r="B583" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="C583" t="s">
         <v>18</v>
       </c>
       <c r="D583">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E583" t="s">
         <v>19</v>
@@ -35930,31 +36008,31 @@
         <v>20</v>
       </c>
       <c r="H583">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="I583" t="s">
         <v>21</v>
       </c>
       <c r="J583">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K583" t="s">
         <v>22</v>
       </c>
       <c r="L583">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="M583" t="s">
         <v>23</v>
       </c>
       <c r="N583">
-        <v>0.468354430379746</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="O583" t="s">
         <v>24</v>
       </c>
       <c r="P583" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="Q583" s="1">
         <f>IF(D582=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -35966,13 +36044,13 @@
         <v>16</v>
       </c>
       <c r="B584" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="C584" t="s">
         <v>18</v>
       </c>
       <c r="D584">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E584" t="s">
         <v>19</v>
@@ -35984,31 +36062,31 @@
         <v>20</v>
       </c>
       <c r="H584">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="I584" t="s">
         <v>21</v>
       </c>
       <c r="J584">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="K584" t="s">
         <v>22</v>
       </c>
       <c r="L584">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M584" t="s">
         <v>23</v>
       </c>
       <c r="N584">
-        <v>0.12068965517241299</v>
+        <v>0.65486725663716805</v>
       </c>
       <c r="O584" t="s">
         <v>24</v>
       </c>
       <c r="P584" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="Q584" s="1">
         <f>IF(D583=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36020,13 +36098,13 @@
         <v>16</v>
       </c>
       <c r="B585" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="C585" t="s">
         <v>18</v>
       </c>
       <c r="D585">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E585" t="s">
         <v>19</v>
@@ -36038,31 +36116,31 @@
         <v>20</v>
       </c>
       <c r="H585">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="I585" t="s">
         <v>21</v>
       </c>
       <c r="J585">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="K585" t="s">
         <v>22</v>
       </c>
       <c r="L585">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M585" t="s">
         <v>23</v>
       </c>
       <c r="N585">
-        <v>0.485436893203883</v>
+        <v>0.67256637168141598</v>
       </c>
       <c r="O585" t="s">
         <v>24</v>
       </c>
       <c r="P585" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="Q585" s="1">
         <f>IF(D584=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36074,13 +36152,13 @@
         <v>16</v>
       </c>
       <c r="B586" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="C586" t="s">
         <v>18</v>
       </c>
       <c r="D586">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E586" t="s">
         <v>19</v>
@@ -36098,25 +36176,25 @@
         <v>21</v>
       </c>
       <c r="J586">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K586" t="s">
         <v>22</v>
       </c>
       <c r="L586">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M586" t="s">
         <v>23</v>
       </c>
       <c r="N586">
-        <v>0.44615384615384601</v>
+        <v>0.88983050847457601</v>
       </c>
       <c r="O586" t="s">
         <v>24</v>
       </c>
       <c r="P586" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="Q586" s="1">
         <f>IF(D585=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36128,13 +36206,13 @@
         <v>16</v>
       </c>
       <c r="B587" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="C587" t="s">
         <v>18</v>
       </c>
       <c r="D587">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="E587" t="s">
         <v>19</v>
@@ -36146,31 +36224,31 @@
         <v>20</v>
       </c>
       <c r="H587">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="I587" t="s">
         <v>21</v>
       </c>
       <c r="J587">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="K587" t="s">
         <v>22</v>
       </c>
       <c r="L587">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M587" t="s">
         <v>23</v>
       </c>
       <c r="N587">
-        <v>0.163265306122448</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="O587" t="s">
         <v>24</v>
       </c>
       <c r="P587" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="Q587" s="1">
         <f>IF(D586=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36182,13 +36260,13 @@
         <v>16</v>
       </c>
       <c r="B588" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="C588" t="s">
         <v>18</v>
       </c>
       <c r="D588">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E588" t="s">
         <v>19</v>
@@ -36200,31 +36278,31 @@
         <v>20</v>
       </c>
       <c r="H588">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="I588" t="s">
         <v>21</v>
       </c>
       <c r="J588">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="K588" t="s">
         <v>22</v>
       </c>
       <c r="L588">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M588" t="s">
         <v>23</v>
       </c>
       <c r="N588">
-        <v>0.16</v>
+        <v>0.51754385964912197</v>
       </c>
       <c r="O588" t="s">
         <v>24</v>
       </c>
       <c r="P588" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="Q588" s="1">
         <f>IF(D587=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36236,49 +36314,49 @@
         <v>16</v>
       </c>
       <c r="B589" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="C589" t="s">
         <v>18</v>
       </c>
       <c r="D589">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E589" t="s">
         <v>19</v>
       </c>
       <c r="F589">
-        <v>3560</v>
+        <v>50000</v>
       </c>
       <c r="G589" t="s">
         <v>20</v>
       </c>
       <c r="H589">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="I589" t="s">
         <v>21</v>
       </c>
       <c r="J589">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="K589" t="s">
         <v>22</v>
       </c>
       <c r="L589">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="M589" t="s">
         <v>23</v>
       </c>
       <c r="N589">
-        <v>0</v>
+        <v>0.92045454545454497</v>
       </c>
       <c r="O589" t="s">
         <v>24</v>
       </c>
       <c r="P589" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="Q589" s="1">
         <f>IF(D588=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36290,13 +36368,13 @@
         <v>16</v>
       </c>
       <c r="B590" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="C590" t="s">
         <v>18</v>
       </c>
       <c r="D590">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E590" t="s">
         <v>19</v>
@@ -36308,31 +36386,31 @@
         <v>20</v>
       </c>
       <c r="H590">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="I590" t="s">
         <v>21</v>
       </c>
       <c r="J590">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="K590" t="s">
         <v>22</v>
       </c>
       <c r="L590">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M590" t="s">
         <v>23</v>
       </c>
       <c r="N590">
-        <v>7.2072072072072002E-2</v>
+        <v>0.32520325203251998</v>
       </c>
       <c r="O590" t="s">
         <v>24</v>
       </c>
       <c r="P590" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="Q590" s="1">
         <f>IF(D589=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36344,13 +36422,13 @@
         <v>16</v>
       </c>
       <c r="B591" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C591" t="s">
         <v>18</v>
       </c>
       <c r="D591">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E591" t="s">
         <v>19</v>
@@ -36362,31 +36440,31 @@
         <v>20</v>
       </c>
       <c r="H591">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I591" t="s">
         <v>21</v>
       </c>
       <c r="J591">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K591" t="s">
         <v>22</v>
       </c>
       <c r="L591">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M591" t="s">
         <v>23</v>
       </c>
       <c r="N591">
-        <v>7.5630252100840303E-2</v>
+        <v>0.28828828828828801</v>
       </c>
       <c r="O591" t="s">
         <v>24</v>
       </c>
       <c r="P591" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="Q591" s="1">
         <f>IF(D590=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36398,13 +36476,13 @@
         <v>16</v>
       </c>
       <c r="B592" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="C592" t="s">
         <v>18</v>
       </c>
       <c r="D592">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E592" t="s">
         <v>19</v>
@@ -36416,31 +36494,31 @@
         <v>20</v>
       </c>
       <c r="H592">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="I592" t="s">
         <v>21</v>
       </c>
       <c r="J592">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K592" t="s">
         <v>22</v>
       </c>
       <c r="L592">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M592" t="s">
         <v>23</v>
       </c>
       <c r="N592">
-        <v>0.282608695652173</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="O592" t="s">
         <v>24</v>
       </c>
       <c r="P592" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="Q592" s="1">
         <f>IF(D591=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36452,13 +36530,13 @@
         <v>16</v>
       </c>
       <c r="B593" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="C593" t="s">
         <v>18</v>
       </c>
       <c r="D593">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E593" t="s">
         <v>19</v>
@@ -36470,31 +36548,31 @@
         <v>20</v>
       </c>
       <c r="H593">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="I593" t="s">
         <v>21</v>
       </c>
       <c r="J593">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K593" t="s">
         <v>22</v>
       </c>
       <c r="L593">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M593" t="s">
         <v>23</v>
       </c>
       <c r="N593">
-        <v>0.24</v>
+        <v>0.18446601941747501</v>
       </c>
       <c r="O593" t="s">
         <v>24</v>
       </c>
       <c r="P593" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="Q593" s="1">
         <f>IF(D592=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36506,13 +36584,13 @@
         <v>16</v>
       </c>
       <c r="B594" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="C594" t="s">
         <v>18</v>
       </c>
       <c r="D594">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E594" t="s">
         <v>19</v>
@@ -36524,31 +36602,31 @@
         <v>20</v>
       </c>
       <c r="H594">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="I594" t="s">
         <v>21</v>
       </c>
       <c r="J594">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="K594" t="s">
         <v>22</v>
       </c>
       <c r="L594">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M594" t="s">
         <v>23</v>
       </c>
       <c r="N594">
-        <v>0.24489795918367299</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="O594" t="s">
         <v>24</v>
       </c>
       <c r="P594" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="Q594" s="1">
         <f>IF(D593=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36560,13 +36638,13 @@
         <v>16</v>
       </c>
       <c r="B595" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
       <c r="C595" t="s">
         <v>18</v>
       </c>
       <c r="D595">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E595" t="s">
         <v>19</v>
@@ -36578,31 +36656,31 @@
         <v>20</v>
       </c>
       <c r="H595">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="I595" t="s">
         <v>21</v>
       </c>
       <c r="J595">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="K595" t="s">
         <v>22</v>
       </c>
       <c r="L595">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M595" t="s">
         <v>23</v>
       </c>
       <c r="N595">
-        <v>0.224719101123595</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="O595" t="s">
         <v>24</v>
       </c>
       <c r="P595" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="Q595" s="1">
         <f>IF(D594=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36614,13 +36692,13 @@
         <v>16</v>
       </c>
       <c r="B596" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="C596" t="s">
         <v>18</v>
       </c>
       <c r="D596">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E596" t="s">
         <v>19</v>
@@ -36632,31 +36710,31 @@
         <v>20</v>
       </c>
       <c r="H596">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="I596" t="s">
         <v>21</v>
       </c>
       <c r="J596">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K596" t="s">
         <v>22</v>
       </c>
       <c r="L596">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M596" t="s">
         <v>23</v>
       </c>
       <c r="N596">
-        <v>0.25263157894736799</v>
+        <v>0.468354430379746</v>
       </c>
       <c r="O596" t="s">
         <v>24</v>
       </c>
       <c r="P596" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="Q596" s="1">
         <f>IF(D595=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36668,13 +36746,13 @@
         <v>16</v>
       </c>
       <c r="B597" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="C597" t="s">
         <v>18</v>
       </c>
       <c r="D597">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E597" t="s">
         <v>19</v>
@@ -36686,31 +36764,31 @@
         <v>20</v>
       </c>
       <c r="H597">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I597" t="s">
         <v>21</v>
       </c>
       <c r="J597">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K597" t="s">
         <v>22</v>
       </c>
       <c r="L597">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="M597" t="s">
         <v>23</v>
       </c>
       <c r="N597">
-        <v>0.12121212121212099</v>
+        <v>0.12068965517241299</v>
       </c>
       <c r="O597" t="s">
         <v>24</v>
       </c>
       <c r="P597" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="Q597" s="1">
         <f>IF(D596=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36722,13 +36800,13 @@
         <v>16</v>
       </c>
       <c r="B598" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="C598" t="s">
         <v>18</v>
       </c>
       <c r="D598">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E598" t="s">
         <v>19</v>
@@ -36740,31 +36818,31 @@
         <v>20</v>
       </c>
       <c r="H598">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I598" t="s">
         <v>21</v>
       </c>
       <c r="J598">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="K598" t="s">
         <v>22</v>
       </c>
       <c r="L598">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M598" t="s">
         <v>23</v>
       </c>
       <c r="N598">
-        <v>0.09</v>
+        <v>0.485436893203883</v>
       </c>
       <c r="O598" t="s">
         <v>24</v>
       </c>
       <c r="P598" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="Q598" s="1">
         <f>IF(D597=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36776,49 +36854,49 @@
         <v>16</v>
       </c>
       <c r="B599" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="C599" t="s">
         <v>18</v>
       </c>
       <c r="D599">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E599" t="s">
         <v>19</v>
       </c>
       <c r="F599">
-        <v>25174</v>
+        <v>50000</v>
       </c>
       <c r="G599" t="s">
         <v>20</v>
       </c>
       <c r="H599">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="I599" t="s">
         <v>21</v>
       </c>
       <c r="J599">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="K599" t="s">
         <v>22</v>
       </c>
       <c r="L599">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="M599" t="s">
         <v>23</v>
       </c>
       <c r="N599">
-        <v>0</v>
+        <v>0.44615384615384601</v>
       </c>
       <c r="O599" t="s">
         <v>24</v>
       </c>
       <c r="P599" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="Q599" s="1">
         <f>IF(D598=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36830,49 +36908,49 @@
         <v>16</v>
       </c>
       <c r="B600" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="C600" t="s">
         <v>18</v>
       </c>
       <c r="D600">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E600" t="s">
         <v>19</v>
       </c>
       <c r="F600">
-        <v>7956</v>
+        <v>50000</v>
       </c>
       <c r="G600" t="s">
         <v>20</v>
       </c>
       <c r="H600">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="I600" t="s">
         <v>21</v>
       </c>
       <c r="J600">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K600" t="s">
         <v>22</v>
       </c>
       <c r="L600">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="M600" t="s">
         <v>23</v>
       </c>
       <c r="N600">
-        <v>0</v>
+        <v>0.163265306122448</v>
       </c>
       <c r="O600" t="s">
         <v>24</v>
       </c>
       <c r="P600" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="Q600" s="1">
         <f>IF(D599=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36884,13 +36962,13 @@
         <v>16</v>
       </c>
       <c r="B601" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="C601" t="s">
         <v>18</v>
       </c>
       <c r="D601">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E601" t="s">
         <v>19</v>
@@ -36902,31 +36980,31 @@
         <v>20</v>
       </c>
       <c r="H601">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="I601" t="s">
         <v>21</v>
       </c>
       <c r="J601">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K601" t="s">
         <v>22</v>
       </c>
       <c r="L601">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M601" t="s">
         <v>23</v>
       </c>
       <c r="N601">
-        <v>5.5555555555555497E-2</v>
+        <v>0.16</v>
       </c>
       <c r="O601" t="s">
         <v>24</v>
       </c>
       <c r="P601" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="Q601" s="1">
         <f>IF(D600=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36938,37 +37016,37 @@
         <v>16</v>
       </c>
       <c r="B602" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
       <c r="C602" t="s">
         <v>18</v>
       </c>
       <c r="D602">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E602" t="s">
         <v>19</v>
       </c>
       <c r="F602">
-        <v>30184</v>
+        <v>3560</v>
       </c>
       <c r="G602" t="s">
         <v>20</v>
       </c>
       <c r="H602">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I602" t="s">
         <v>21</v>
       </c>
       <c r="J602">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="K602" t="s">
         <v>22</v>
       </c>
       <c r="L602">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="M602" t="s">
         <v>23</v>
@@ -36980,7 +37058,7 @@
         <v>24</v>
       </c>
       <c r="P602" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="Q602" s="1">
         <f>IF(D601=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -36992,13 +37070,13 @@
         <v>16</v>
       </c>
       <c r="B603" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="C603" t="s">
         <v>18</v>
       </c>
       <c r="D603">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E603" t="s">
         <v>19</v>
@@ -37010,31 +37088,31 @@
         <v>20</v>
       </c>
       <c r="H603">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="I603" t="s">
         <v>21</v>
       </c>
       <c r="J603">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K603" t="s">
         <v>22</v>
       </c>
       <c r="L603">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M603" t="s">
         <v>23</v>
       </c>
       <c r="N603">
-        <v>8.16326530612244E-2</v>
+        <v>7.2072072072072002E-2</v>
       </c>
       <c r="O603" t="s">
         <v>24</v>
       </c>
       <c r="P603" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="Q603" s="1">
         <f>IF(D602=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37046,13 +37124,13 @@
         <v>16</v>
       </c>
       <c r="B604" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="C604" t="s">
         <v>18</v>
       </c>
       <c r="D604">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E604" t="s">
         <v>19</v>
@@ -37064,31 +37142,31 @@
         <v>20</v>
       </c>
       <c r="H604">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="I604" t="s">
         <v>21</v>
       </c>
       <c r="J604">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="K604" t="s">
         <v>22</v>
       </c>
       <c r="L604">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M604" t="s">
         <v>23</v>
       </c>
       <c r="N604">
-        <v>9.5238095238095195E-3</v>
+        <v>7.5630252100840303E-2</v>
       </c>
       <c r="O604" t="s">
         <v>24</v>
       </c>
       <c r="P604" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
       <c r="Q604" s="1">
         <f>IF(D603=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37100,13 +37178,13 @@
         <v>16</v>
       </c>
       <c r="B605" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="C605" t="s">
         <v>18</v>
       </c>
       <c r="D605">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E605" t="s">
         <v>19</v>
@@ -37118,31 +37196,31 @@
         <v>20</v>
       </c>
       <c r="H605">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="I605" t="s">
         <v>21</v>
       </c>
       <c r="J605">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K605" t="s">
         <v>22</v>
       </c>
       <c r="L605">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M605" t="s">
         <v>23</v>
       </c>
       <c r="N605">
-        <v>6.9306930693069299E-2</v>
+        <v>0.282608695652173</v>
       </c>
       <c r="O605" t="s">
         <v>24</v>
       </c>
       <c r="P605" t="s">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="Q605" s="1">
         <f>IF(D604=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37154,13 +37232,13 @@
         <v>16</v>
       </c>
       <c r="B606" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="C606" t="s">
         <v>18</v>
       </c>
       <c r="D606">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="E606" t="s">
         <v>19</v>
@@ -37172,31 +37250,31 @@
         <v>20</v>
       </c>
       <c r="H606">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="I606" t="s">
         <v>21</v>
       </c>
       <c r="J606">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="K606" t="s">
         <v>22</v>
       </c>
       <c r="L606">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M606" t="s">
         <v>23</v>
       </c>
       <c r="N606">
-        <v>5.31914893617021E-2</v>
+        <v>0.24</v>
       </c>
       <c r="O606" t="s">
         <v>24</v>
       </c>
       <c r="P606" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="Q606" s="1">
         <f>IF(D605=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37208,13 +37286,13 @@
         <v>16</v>
       </c>
       <c r="B607" t="s">
-        <v>286</v>
+        <v>1003</v>
       </c>
       <c r="C607" t="s">
         <v>18</v>
       </c>
       <c r="D607">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E607" t="s">
         <v>19</v>
@@ -37226,31 +37304,31 @@
         <v>20</v>
       </c>
       <c r="H607">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="I607" t="s">
         <v>21</v>
       </c>
       <c r="J607">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="K607" t="s">
         <v>22</v>
       </c>
       <c r="L607">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M607" t="s">
         <v>23</v>
       </c>
       <c r="N607">
-        <v>1.76842105263157</v>
+        <v>0.24489795918367299</v>
       </c>
       <c r="O607" t="s">
         <v>24</v>
       </c>
       <c r="P607" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="Q607" s="1">
         <f>IF(D606=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37262,13 +37340,13 @@
         <v>16</v>
       </c>
       <c r="B608" t="s">
-        <v>291</v>
+        <v>1005</v>
       </c>
       <c r="C608" t="s">
         <v>18</v>
       </c>
       <c r="D608">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E608" t="s">
         <v>19</v>
@@ -37280,31 +37358,31 @@
         <v>20</v>
       </c>
       <c r="H608">
-        <v>337</v>
+        <v>192</v>
       </c>
       <c r="I608" t="s">
         <v>21</v>
       </c>
       <c r="J608">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="K608" t="s">
         <v>22</v>
       </c>
       <c r="L608">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M608" t="s">
         <v>23</v>
       </c>
       <c r="N608">
-        <v>1.86274509803921</v>
+        <v>0.224719101123595</v>
       </c>
       <c r="O608" t="s">
         <v>24</v>
       </c>
       <c r="P608" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="Q608" s="1">
         <f>IF(D607=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37316,13 +37394,13 @@
         <v>16</v>
       </c>
       <c r="B609" t="s">
-        <v>296</v>
+        <v>1007</v>
       </c>
       <c r="C609" t="s">
         <v>18</v>
       </c>
       <c r="D609">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E609" t="s">
         <v>19</v>
@@ -37334,31 +37412,31 @@
         <v>20</v>
       </c>
       <c r="H609">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="I609" t="s">
         <v>21</v>
       </c>
       <c r="J609">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="K609" t="s">
         <v>22</v>
       </c>
       <c r="L609">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M609" t="s">
         <v>23</v>
       </c>
       <c r="N609">
-        <v>1.6206896551724099</v>
+        <v>0.25263157894736799</v>
       </c>
       <c r="O609" t="s">
         <v>24</v>
       </c>
       <c r="P609" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="Q609" s="1">
         <f>IF(D608=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37370,13 +37448,13 @@
         <v>16</v>
       </c>
       <c r="B610" t="s">
-        <v>301</v>
+        <v>1009</v>
       </c>
       <c r="C610" t="s">
         <v>18</v>
       </c>
       <c r="D610">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E610" t="s">
         <v>19</v>
@@ -37388,31 +37466,31 @@
         <v>20</v>
       </c>
       <c r="H610">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="I610" t="s">
         <v>21</v>
       </c>
       <c r="J610">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="K610" t="s">
         <v>22</v>
       </c>
       <c r="L610">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M610" t="s">
         <v>23</v>
       </c>
       <c r="N610">
-        <v>1.8817204301075201</v>
+        <v>0.12121212121212099</v>
       </c>
       <c r="O610" t="s">
         <v>24</v>
       </c>
       <c r="P610" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="Q610" s="1">
         <f>IF(D609=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37424,13 +37502,13 @@
         <v>16</v>
       </c>
       <c r="B611" t="s">
-        <v>306</v>
+        <v>1011</v>
       </c>
       <c r="C611" t="s">
         <v>18</v>
       </c>
       <c r="D611">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E611" t="s">
         <v>19</v>
@@ -37442,31 +37520,31 @@
         <v>20</v>
       </c>
       <c r="H611">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="I611" t="s">
         <v>21</v>
       </c>
       <c r="J611">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="K611" t="s">
         <v>22</v>
       </c>
       <c r="L611">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M611" t="s">
         <v>23</v>
       </c>
       <c r="N611">
-        <v>1.83720930232558</v>
+        <v>0.09</v>
       </c>
       <c r="O611" t="s">
         <v>24</v>
       </c>
       <c r="P611" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="Q611" s="1">
         <f>IF(D610=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37478,49 +37556,49 @@
         <v>16</v>
       </c>
       <c r="B612" t="s">
-        <v>311</v>
+        <v>1013</v>
       </c>
       <c r="C612" t="s">
         <v>18</v>
       </c>
       <c r="D612">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E612" t="s">
         <v>19</v>
       </c>
       <c r="F612">
-        <v>50000</v>
+        <v>25174</v>
       </c>
       <c r="G612" t="s">
         <v>20</v>
       </c>
       <c r="H612">
-        <v>416</v>
+        <v>155</v>
       </c>
       <c r="I612" t="s">
         <v>21</v>
       </c>
       <c r="J612">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="K612" t="s">
         <v>22</v>
       </c>
       <c r="L612">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="M612" t="s">
         <v>23</v>
       </c>
       <c r="N612">
-        <v>1.68376068376068</v>
+        <v>0</v>
       </c>
       <c r="O612" t="s">
         <v>24</v>
       </c>
       <c r="P612" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="Q612" s="1">
         <f>IF(D611=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37532,49 +37610,49 @@
         <v>16</v>
       </c>
       <c r="B613" t="s">
-        <v>315</v>
+        <v>1015</v>
       </c>
       <c r="C613" t="s">
         <v>18</v>
       </c>
       <c r="D613">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E613" t="s">
         <v>19</v>
       </c>
       <c r="F613">
-        <v>50000</v>
+        <v>7956</v>
       </c>
       <c r="G613" t="s">
         <v>20</v>
       </c>
       <c r="H613">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="I613" t="s">
         <v>21</v>
       </c>
       <c r="J613">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="K613" t="s">
         <v>22</v>
       </c>
       <c r="L613">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M613" t="s">
         <v>23</v>
       </c>
       <c r="N613">
-        <v>1.5157894736842099</v>
+        <v>0</v>
       </c>
       <c r="O613" t="s">
         <v>24</v>
       </c>
       <c r="P613" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="Q613" s="1">
         <f>IF(D612=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37586,13 +37664,13 @@
         <v>16</v>
       </c>
       <c r="B614" t="s">
-        <v>320</v>
+        <v>1017</v>
       </c>
       <c r="C614" t="s">
         <v>18</v>
       </c>
       <c r="D614">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E614" t="s">
         <v>19</v>
@@ -37604,31 +37682,31 @@
         <v>20</v>
       </c>
       <c r="H614">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="I614" t="s">
         <v>21</v>
       </c>
       <c r="J614">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="K614" t="s">
         <v>22</v>
       </c>
       <c r="L614">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="M614" t="s">
         <v>23</v>
       </c>
       <c r="N614">
-        <v>1.6923076923076901</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="O614" t="s">
         <v>24</v>
       </c>
       <c r="P614" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="Q614" s="1">
         <f>IF(D613=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37640,49 +37718,49 @@
         <v>16</v>
       </c>
       <c r="B615" t="s">
-        <v>325</v>
+        <v>1019</v>
       </c>
       <c r="C615" t="s">
         <v>18</v>
       </c>
       <c r="D615">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E615" t="s">
         <v>19</v>
       </c>
       <c r="F615">
-        <v>50000</v>
+        <v>30184</v>
       </c>
       <c r="G615" t="s">
         <v>20</v>
       </c>
       <c r="H615">
-        <v>426</v>
+        <v>172</v>
       </c>
       <c r="I615" t="s">
         <v>21</v>
       </c>
       <c r="J615">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="K615" t="s">
         <v>22</v>
       </c>
       <c r="L615">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M615" t="s">
         <v>23</v>
       </c>
       <c r="N615">
-        <v>2.2525252525252499</v>
+        <v>0</v>
       </c>
       <c r="O615" t="s">
         <v>24</v>
       </c>
       <c r="P615" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="Q615" s="1">
         <f>IF(D614=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37694,13 +37772,13 @@
         <v>16</v>
       </c>
       <c r="B616" t="s">
-        <v>330</v>
+        <v>1021</v>
       </c>
       <c r="C616" t="s">
         <v>18</v>
       </c>
       <c r="D616">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E616" t="s">
         <v>19</v>
@@ -37712,31 +37790,31 @@
         <v>20</v>
       </c>
       <c r="H616">
-        <v>406</v>
+        <v>183</v>
       </c>
       <c r="I616" t="s">
         <v>21</v>
       </c>
       <c r="J616">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="K616" t="s">
         <v>22</v>
       </c>
       <c r="L616">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M616" t="s">
         <v>23</v>
       </c>
       <c r="N616">
-        <v>2.2079207920792001</v>
+        <v>8.16326530612244E-2</v>
       </c>
       <c r="O616" t="s">
         <v>24</v>
       </c>
       <c r="P616" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="Q616" s="1">
         <f>IF(D615=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37748,13 +37826,13 @@
         <v>16</v>
       </c>
       <c r="B617" t="s">
-        <v>334</v>
+        <v>1023</v>
       </c>
       <c r="C617" t="s">
         <v>18</v>
       </c>
       <c r="D617">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E617" t="s">
         <v>19</v>
@@ -37766,31 +37844,31 @@
         <v>20</v>
       </c>
       <c r="H617">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="I617" t="s">
         <v>21</v>
       </c>
       <c r="J617">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="K617" t="s">
         <v>22</v>
       </c>
       <c r="L617">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M617" t="s">
         <v>23</v>
       </c>
       <c r="N617">
-        <v>0.79824561403508698</v>
+        <v>9.5238095238095195E-3</v>
       </c>
       <c r="O617" t="s">
         <v>24</v>
       </c>
       <c r="P617" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="Q617" s="1">
         <f>IF(D616=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37802,13 +37880,13 @@
         <v>16</v>
       </c>
       <c r="B618" t="s">
-        <v>338</v>
+        <v>1025</v>
       </c>
       <c r="C618" t="s">
         <v>18</v>
       </c>
       <c r="D618">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E618" t="s">
         <v>19</v>
@@ -37820,31 +37898,31 @@
         <v>20</v>
       </c>
       <c r="H618">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="I618" t="s">
         <v>21</v>
       </c>
       <c r="J618">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="K618" t="s">
         <v>22</v>
       </c>
       <c r="L618">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M618" t="s">
         <v>23</v>
       </c>
       <c r="N618">
-        <v>0.53719008264462798</v>
+        <v>6.9306930693069299E-2</v>
       </c>
       <c r="O618" t="s">
         <v>24</v>
       </c>
       <c r="P618" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="Q618" s="1">
         <f>IF(D617=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37856,13 +37934,13 @@
         <v>16</v>
       </c>
       <c r="B619" t="s">
-        <v>342</v>
+        <v>1027</v>
       </c>
       <c r="C619" t="s">
         <v>18</v>
       </c>
       <c r="D619">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E619" t="s">
         <v>19</v>
@@ -37874,31 +37952,31 @@
         <v>20</v>
       </c>
       <c r="H619">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="I619" t="s">
         <v>21</v>
       </c>
       <c r="J619">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="K619" t="s">
         <v>22</v>
       </c>
       <c r="L619">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M619" t="s">
         <v>23</v>
       </c>
       <c r="N619">
-        <v>0.69230769230769196</v>
+        <v>5.31914893617021E-2</v>
       </c>
       <c r="O619" t="s">
         <v>24</v>
       </c>
       <c r="P619" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="Q619" s="1">
         <f>IF(D618=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37910,13 +37988,13 @@
         <v>16</v>
       </c>
       <c r="B620" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="C620" t="s">
         <v>18</v>
       </c>
       <c r="D620">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E620" t="s">
         <v>19</v>
@@ -37928,31 +38006,31 @@
         <v>20</v>
       </c>
       <c r="H620">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="I620" t="s">
         <v>21</v>
       </c>
       <c r="J620">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="K620" t="s">
         <v>22</v>
       </c>
       <c r="L620">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="M620" t="s">
         <v>23</v>
       </c>
       <c r="N620">
-        <v>0.79130434782608605</v>
+        <v>1.76842105263157</v>
       </c>
       <c r="O620" t="s">
         <v>24</v>
       </c>
       <c r="P620" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="Q620" s="1">
         <f>IF(D619=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -37964,13 +38042,13 @@
         <v>16</v>
       </c>
       <c r="B621" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="C621" t="s">
         <v>18</v>
       </c>
       <c r="D621">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E621" t="s">
         <v>19</v>
@@ -37982,31 +38060,31 @@
         <v>20</v>
       </c>
       <c r="H621">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="I621" t="s">
         <v>21</v>
       </c>
       <c r="J621">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="K621" t="s">
         <v>22</v>
       </c>
       <c r="L621">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M621" t="s">
         <v>23</v>
       </c>
       <c r="N621">
-        <v>0.83333333333333304</v>
+        <v>1.86274509803921</v>
       </c>
       <c r="O621" t="s">
         <v>24</v>
       </c>
       <c r="P621" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="Q621" s="1">
         <f>IF(D620=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38018,13 +38096,13 @@
         <v>16</v>
       </c>
       <c r="B622" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="C622" t="s">
         <v>18</v>
       </c>
       <c r="D622">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E622" t="s">
         <v>19</v>
@@ -38036,31 +38114,31 @@
         <v>20</v>
       </c>
       <c r="H622">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="I622" t="s">
         <v>21</v>
       </c>
       <c r="J622">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="K622" t="s">
         <v>22</v>
       </c>
       <c r="L622">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M622" t="s">
         <v>23</v>
       </c>
       <c r="N622">
-        <v>1.0625</v>
+        <v>1.6206896551724099</v>
       </c>
       <c r="O622" t="s">
         <v>24</v>
       </c>
       <c r="P622" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="Q622" s="1">
         <f>IF(D621=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38072,13 +38150,13 @@
         <v>16</v>
       </c>
       <c r="B623" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C623" t="s">
         <v>18</v>
       </c>
       <c r="D623">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E623" t="s">
         <v>19</v>
@@ -38090,31 +38168,31 @@
         <v>20</v>
       </c>
       <c r="H623">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="I623" t="s">
         <v>21</v>
       </c>
       <c r="J623">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="K623" t="s">
         <v>22</v>
       </c>
       <c r="L623">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M623" t="s">
         <v>23</v>
       </c>
       <c r="N623">
-        <v>1.12121212121212</v>
+        <v>1.8817204301075201</v>
       </c>
       <c r="O623" t="s">
         <v>24</v>
       </c>
       <c r="P623" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="Q623" s="1">
         <f>IF(D622=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38126,13 +38204,13 @@
         <v>16</v>
       </c>
       <c r="B624" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="C624" t="s">
         <v>18</v>
       </c>
       <c r="D624">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E624" t="s">
         <v>19</v>
@@ -38144,31 +38222,31 @@
         <v>20</v>
       </c>
       <c r="H624">
+        <v>325</v>
+      </c>
+      <c r="I624" t="s">
+        <v>21</v>
+      </c>
+      <c r="J624">
         <v>244</v>
       </c>
-      <c r="I624" t="s">
-        <v>21</v>
-      </c>
-      <c r="J624">
-        <v>183</v>
-      </c>
       <c r="K624" t="s">
         <v>22</v>
       </c>
       <c r="L624">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="M624" t="s">
         <v>23</v>
       </c>
       <c r="N624">
-        <v>0.59130434782608698</v>
+        <v>1.83720930232558</v>
       </c>
       <c r="O624" t="s">
         <v>24</v>
       </c>
       <c r="P624" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="Q624" s="1">
         <f>IF(D623=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38180,13 +38258,13 @@
         <v>16</v>
       </c>
       <c r="B625" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="C625" t="s">
         <v>18</v>
       </c>
       <c r="D625">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E625" t="s">
         <v>19</v>
@@ -38198,31 +38276,31 @@
         <v>20</v>
       </c>
       <c r="H625">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="I625" t="s">
         <v>21</v>
       </c>
       <c r="J625">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="K625" t="s">
         <v>22</v>
       </c>
       <c r="L625">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M625" t="s">
         <v>23</v>
       </c>
       <c r="N625">
-        <v>1.0930232558139501</v>
+        <v>1.68376068376068</v>
       </c>
       <c r="O625" t="s">
         <v>24</v>
       </c>
       <c r="P625" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="Q625" s="1">
         <f>IF(D624=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38234,13 +38312,13 @@
         <v>16</v>
       </c>
       <c r="B626" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="C626" t="s">
         <v>18</v>
       </c>
       <c r="D626">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E626" t="s">
         <v>19</v>
@@ -38252,31 +38330,31 @@
         <v>20</v>
       </c>
       <c r="H626">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="I626" t="s">
         <v>21</v>
       </c>
       <c r="J626">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="K626" t="s">
         <v>22</v>
       </c>
       <c r="L626">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M626" t="s">
         <v>23</v>
       </c>
       <c r="N626">
-        <v>0.72222222222222199</v>
+        <v>1.5157894736842099</v>
       </c>
       <c r="O626" t="s">
         <v>24</v>
       </c>
       <c r="P626" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="Q626" s="1">
         <f>IF(D625=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38288,13 +38366,13 @@
         <v>16</v>
       </c>
       <c r="B627" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="C627" t="s">
         <v>18</v>
       </c>
       <c r="D627">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E627" t="s">
         <v>19</v>
@@ -38306,31 +38384,31 @@
         <v>20</v>
       </c>
       <c r="H627">
-        <v>271</v>
+        <v>401</v>
       </c>
       <c r="I627" t="s">
         <v>21</v>
       </c>
       <c r="J627">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="K627" t="s">
         <v>22</v>
       </c>
       <c r="L627">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M627" t="s">
         <v>23</v>
       </c>
       <c r="N627">
-        <v>0.27272727272727199</v>
+        <v>1.6923076923076901</v>
       </c>
       <c r="O627" t="s">
         <v>24</v>
       </c>
       <c r="P627" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="Q627" s="1">
         <f>IF(D626=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38342,13 +38420,13 @@
         <v>16</v>
       </c>
       <c r="B628" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="C628" t="s">
         <v>18</v>
       </c>
       <c r="D628">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E628" t="s">
         <v>19</v>
@@ -38360,31 +38438,31 @@
         <v>20</v>
       </c>
       <c r="H628">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="I628" t="s">
         <v>21</v>
       </c>
       <c r="J628">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="K628" t="s">
         <v>22</v>
       </c>
       <c r="L628">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M628" t="s">
         <v>23</v>
       </c>
       <c r="N628">
-        <v>0.48979591836734598</v>
+        <v>2.2525252525252499</v>
       </c>
       <c r="O628" t="s">
         <v>24</v>
       </c>
       <c r="P628" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="Q628" s="1">
         <f>IF(D627=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38396,13 +38474,13 @@
         <v>16</v>
       </c>
       <c r="B629" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="C629" t="s">
         <v>18</v>
       </c>
       <c r="D629">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E629" t="s">
         <v>19</v>
@@ -38414,31 +38492,31 @@
         <v>20</v>
       </c>
       <c r="H629">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="I629" t="s">
         <v>21</v>
       </c>
       <c r="J629">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="K629" t="s">
         <v>22</v>
       </c>
       <c r="L629">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M629" t="s">
         <v>23</v>
       </c>
       <c r="N629">
-        <v>0.30188679245283001</v>
+        <v>2.2079207920792001</v>
       </c>
       <c r="O629" t="s">
         <v>24</v>
       </c>
       <c r="P629" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="Q629" s="1">
         <f>IF(D628=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38450,13 +38528,13 @@
         <v>16</v>
       </c>
       <c r="B630" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="C630" t="s">
         <v>18</v>
       </c>
       <c r="D630">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E630" t="s">
         <v>19</v>
@@ -38468,31 +38546,31 @@
         <v>20</v>
       </c>
       <c r="H630">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="I630" t="s">
         <v>21</v>
       </c>
       <c r="J630">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="K630" t="s">
         <v>22</v>
       </c>
       <c r="L630">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="M630" t="s">
         <v>23</v>
       </c>
       <c r="N630">
-        <v>0.41758241758241699</v>
+        <v>0.79824561403508698</v>
       </c>
       <c r="O630" t="s">
         <v>24</v>
       </c>
       <c r="P630" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="Q630" s="1">
         <f>IF(D629=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38504,13 +38582,13 @@
         <v>16</v>
       </c>
       <c r="B631" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="C631" t="s">
         <v>18</v>
       </c>
       <c r="D631">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E631" t="s">
         <v>19</v>
@@ -38522,31 +38600,31 @@
         <v>20</v>
       </c>
       <c r="H631">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="I631" t="s">
         <v>21</v>
       </c>
       <c r="J631">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="K631" t="s">
         <v>22</v>
       </c>
       <c r="L631">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="M631" t="s">
         <v>23</v>
       </c>
       <c r="N631">
-        <v>0.62244897959183598</v>
+        <v>0.53719008264462798</v>
       </c>
       <c r="O631" t="s">
         <v>24</v>
       </c>
       <c r="P631" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="Q631" s="1">
         <f>IF(D630=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38558,13 +38636,13 @@
         <v>16</v>
       </c>
       <c r="B632" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="C632" t="s">
         <v>18</v>
       </c>
       <c r="D632">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E632" t="s">
         <v>19</v>
@@ -38576,31 +38654,31 @@
         <v>20</v>
       </c>
       <c r="H632">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I632" t="s">
         <v>21</v>
       </c>
       <c r="J632">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="K632" t="s">
         <v>22</v>
       </c>
       <c r="L632">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M632" t="s">
         <v>23</v>
       </c>
       <c r="N632">
-        <v>0.26732673267326701</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="O632" t="s">
         <v>24</v>
       </c>
       <c r="P632" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="Q632" s="1">
         <f>IF(D631=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38612,13 +38690,13 @@
         <v>16</v>
       </c>
       <c r="B633" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="C633" t="s">
         <v>18</v>
       </c>
       <c r="D633">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E633" t="s">
         <v>19</v>
@@ -38630,31 +38708,31 @@
         <v>20</v>
       </c>
       <c r="H633">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="I633" t="s">
         <v>21</v>
       </c>
       <c r="J633">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="K633" t="s">
         <v>22</v>
       </c>
       <c r="L633">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M633" t="s">
         <v>23</v>
       </c>
       <c r="N633">
-        <v>0.485436893203883</v>
+        <v>0.79130434782608605</v>
       </c>
       <c r="O633" t="s">
         <v>24</v>
       </c>
       <c r="P633" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="Q633" s="1">
         <f>IF(D632=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38666,13 +38744,13 @@
         <v>16</v>
       </c>
       <c r="B634" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="C634" t="s">
         <v>18</v>
       </c>
       <c r="D634">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E634" t="s">
         <v>19</v>
@@ -38684,31 +38762,31 @@
         <v>20</v>
       </c>
       <c r="H634">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="I634" t="s">
         <v>21</v>
       </c>
       <c r="J634">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="K634" t="s">
         <v>22</v>
       </c>
       <c r="L634">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M634" t="s">
         <v>23</v>
       </c>
       <c r="N634">
-        <v>0.429824561403508</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="O634" t="s">
         <v>24</v>
       </c>
       <c r="P634" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="Q634" s="1">
         <f>IF(D633=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38720,13 +38798,13 @@
         <v>16</v>
       </c>
       <c r="B635" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="C635" t="s">
         <v>18</v>
       </c>
       <c r="D635">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E635" t="s">
         <v>19</v>
@@ -38738,31 +38816,31 @@
         <v>20</v>
       </c>
       <c r="H635">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="I635" t="s">
         <v>21</v>
       </c>
       <c r="J635">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="K635" t="s">
         <v>22</v>
       </c>
       <c r="L635">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M635" t="s">
         <v>23</v>
       </c>
       <c r="N635">
-        <v>0.46464646464646397</v>
+        <v>1.0625</v>
       </c>
       <c r="O635" t="s">
         <v>24</v>
       </c>
       <c r="P635" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="Q635" s="1">
         <f>IF(D634=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38774,13 +38852,13 @@
         <v>16</v>
       </c>
       <c r="B636" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="C636" t="s">
         <v>18</v>
       </c>
       <c r="D636">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E636" t="s">
         <v>19</v>
@@ -38792,31 +38870,31 @@
         <v>20</v>
       </c>
       <c r="H636">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="I636" t="s">
         <v>21</v>
       </c>
       <c r="J636">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K636" t="s">
         <v>22</v>
       </c>
       <c r="L636">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M636" t="s">
         <v>23</v>
       </c>
       <c r="N636">
-        <v>0.52173913043478204</v>
+        <v>1.12121212121212</v>
       </c>
       <c r="O636" t="s">
         <v>24</v>
       </c>
       <c r="P636" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="Q636" s="1">
         <f>IF(D635=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38828,13 +38906,13 @@
         <v>16</v>
       </c>
       <c r="B637" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="C637" t="s">
         <v>18</v>
       </c>
       <c r="D637">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E637" t="s">
         <v>19</v>
@@ -38846,31 +38924,31 @@
         <v>20</v>
       </c>
       <c r="H637">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="I637" t="s">
         <v>21</v>
       </c>
       <c r="J637">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="K637" t="s">
         <v>22</v>
       </c>
       <c r="L637">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M637" t="s">
         <v>23</v>
       </c>
       <c r="N637">
-        <v>0.18627450980392099</v>
+        <v>0.59130434782608698</v>
       </c>
       <c r="O637" t="s">
         <v>24</v>
       </c>
       <c r="P637" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="Q637" s="1">
         <f>IF(D636=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38882,13 +38960,13 @@
         <v>16</v>
       </c>
       <c r="B638" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="C638" t="s">
         <v>18</v>
       </c>
       <c r="D638">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E638" t="s">
         <v>19</v>
@@ -38900,31 +38978,31 @@
         <v>20</v>
       </c>
       <c r="H638">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I638" t="s">
         <v>21</v>
       </c>
       <c r="J638">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="K638" t="s">
         <v>22</v>
       </c>
       <c r="L638">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M638" t="s">
         <v>23</v>
       </c>
       <c r="N638">
-        <v>0.35849056603773499</v>
+        <v>1.0930232558139501</v>
       </c>
       <c r="O638" t="s">
         <v>24</v>
       </c>
       <c r="P638" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="Q638" s="1">
         <f>IF(D637=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38936,13 +39014,13 @@
         <v>16</v>
       </c>
       <c r="B639" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="C639" t="s">
         <v>18</v>
       </c>
       <c r="D639">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E639" t="s">
         <v>19</v>
@@ -38954,31 +39032,31 @@
         <v>20</v>
       </c>
       <c r="H639">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="I639" t="s">
         <v>21</v>
       </c>
       <c r="J639">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="K639" t="s">
         <v>22</v>
       </c>
       <c r="L639">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="M639" t="s">
         <v>23</v>
       </c>
       <c r="N639">
-        <v>0.266666666666666</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="O639" t="s">
         <v>24</v>
       </c>
       <c r="P639" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="Q639" s="1">
         <f>IF(D638=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -38990,13 +39068,13 @@
         <v>16</v>
       </c>
       <c r="B640" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="C640" t="s">
         <v>18</v>
       </c>
       <c r="D640">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E640" t="s">
         <v>19</v>
@@ -39008,31 +39086,31 @@
         <v>20</v>
       </c>
       <c r="H640">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="I640" t="s">
         <v>21</v>
       </c>
       <c r="J640">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="K640" t="s">
         <v>22</v>
       </c>
       <c r="L640">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M640" t="s">
         <v>23</v>
       </c>
       <c r="N640">
-        <v>9.2592592592592504E-2</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="O640" t="s">
         <v>24</v>
       </c>
       <c r="P640" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="Q640" s="1">
         <f>IF(D639=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39044,13 +39122,13 @@
         <v>16</v>
       </c>
       <c r="B641" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="C641" t="s">
         <v>18</v>
       </c>
       <c r="D641">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E641" t="s">
         <v>19</v>
@@ -39062,31 +39140,31 @@
         <v>20</v>
       </c>
       <c r="H641">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="I641" t="s">
         <v>21</v>
       </c>
       <c r="J641">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="K641" t="s">
         <v>22</v>
       </c>
       <c r="L641">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M641" t="s">
         <v>23</v>
       </c>
       <c r="N641">
-        <v>8.4112149532710206E-2</v>
+        <v>0.48979591836734598</v>
       </c>
       <c r="O641" t="s">
         <v>24</v>
       </c>
       <c r="P641" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="Q641" s="1">
         <f>IF(D640=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39098,13 +39176,13 @@
         <v>16</v>
       </c>
       <c r="B642" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="C642" t="s">
         <v>18</v>
       </c>
       <c r="D642">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E642" t="s">
         <v>19</v>
@@ -39116,31 +39194,31 @@
         <v>20</v>
       </c>
       <c r="H642">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I642" t="s">
         <v>21</v>
       </c>
       <c r="J642">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="K642" t="s">
         <v>22</v>
       </c>
       <c r="L642">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M642" t="s">
         <v>23</v>
       </c>
       <c r="N642">
-        <v>0.185567010309278</v>
+        <v>0.30188679245283001</v>
       </c>
       <c r="O642" t="s">
         <v>24</v>
       </c>
       <c r="P642" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="Q642" s="1">
         <f>IF(D641=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39152,13 +39230,13 @@
         <v>16</v>
       </c>
       <c r="B643" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="C643" t="s">
         <v>18</v>
       </c>
       <c r="D643">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E643" t="s">
         <v>19</v>
@@ -39170,31 +39248,31 @@
         <v>20</v>
       </c>
       <c r="H643">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I643" t="s">
         <v>21</v>
       </c>
       <c r="J643">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K643" t="s">
         <v>22</v>
       </c>
       <c r="L643">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M643" t="s">
         <v>23</v>
       </c>
       <c r="N643">
-        <v>0.242718446601941</v>
+        <v>0.41758241758241699</v>
       </c>
       <c r="O643" t="s">
         <v>24</v>
       </c>
       <c r="P643" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="Q643" s="1">
         <f>IF(D642=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39206,13 +39284,13 @@
         <v>16</v>
       </c>
       <c r="B644" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C644" t="s">
         <v>18</v>
       </c>
       <c r="D644">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E644" t="s">
         <v>19</v>
@@ -39224,31 +39302,31 @@
         <v>20</v>
       </c>
       <c r="H644">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="I644" t="s">
         <v>21</v>
       </c>
       <c r="J644">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="K644" t="s">
         <v>22</v>
       </c>
       <c r="L644">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M644" t="s">
         <v>23</v>
       </c>
       <c r="N644">
-        <v>0.344444444444444</v>
+        <v>0.62244897959183598</v>
       </c>
       <c r="O644" t="s">
         <v>24</v>
       </c>
       <c r="P644" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="Q644" s="1">
         <f>IF(D643=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39260,13 +39338,13 @@
         <v>16</v>
       </c>
       <c r="B645" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="C645" t="s">
         <v>18</v>
       </c>
       <c r="D645">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E645" t="s">
         <v>19</v>
@@ -39278,31 +39356,31 @@
         <v>20</v>
       </c>
       <c r="H645">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="I645" t="s">
         <v>21</v>
       </c>
       <c r="J645">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K645" t="s">
         <v>22</v>
       </c>
       <c r="L645">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M645" t="s">
         <v>23</v>
       </c>
       <c r="N645">
-        <v>0.22448979591836701</v>
+        <v>0.26732673267326701</v>
       </c>
       <c r="O645" t="s">
         <v>24</v>
       </c>
       <c r="P645" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="Q645" s="1">
         <f>IF(D644=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39314,13 +39392,13 @@
         <v>16</v>
       </c>
       <c r="B646" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="C646" t="s">
         <v>18</v>
       </c>
       <c r="D646">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E646" t="s">
         <v>19</v>
@@ -39332,31 +39410,31 @@
         <v>20</v>
       </c>
       <c r="H646">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="I646" t="s">
         <v>21</v>
       </c>
       <c r="J646">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K646" t="s">
         <v>22</v>
       </c>
       <c r="L646">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M646" t="s">
         <v>23</v>
       </c>
       <c r="N646">
-        <v>0.19642857142857101</v>
+        <v>0.485436893203883</v>
       </c>
       <c r="O646" t="s">
         <v>24</v>
       </c>
       <c r="P646" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="Q646" s="1">
         <f>IF(D645=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39368,49 +39446,49 @@
         <v>16</v>
       </c>
       <c r="B647" t="s">
-        <v>1069</v>
+        <v>402</v>
       </c>
       <c r="C647" t="s">
         <v>18</v>
       </c>
       <c r="D647">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E647" t="s">
         <v>19</v>
       </c>
       <c r="F647">
-        <v>1614</v>
+        <v>50000</v>
       </c>
       <c r="G647" t="s">
         <v>20</v>
       </c>
       <c r="H647">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="I647" t="s">
         <v>21</v>
       </c>
       <c r="J647">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="K647" t="s">
         <v>22</v>
       </c>
       <c r="L647">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="M647" t="s">
         <v>23</v>
       </c>
       <c r="N647">
-        <v>0</v>
+        <v>0.429824561403508</v>
       </c>
       <c r="O647" t="s">
         <v>24</v>
       </c>
       <c r="P647" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="Q647" s="1">
         <f>IF(D646=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39422,49 +39500,49 @@
         <v>16</v>
       </c>
       <c r="B648" t="s">
-        <v>1071</v>
+        <v>406</v>
       </c>
       <c r="C648" t="s">
         <v>18</v>
       </c>
       <c r="D648">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E648" t="s">
         <v>19</v>
       </c>
       <c r="F648">
-        <v>8</v>
+        <v>50000</v>
       </c>
       <c r="G648" t="s">
         <v>20</v>
       </c>
       <c r="H648">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="I648" t="s">
         <v>21</v>
       </c>
       <c r="J648">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="K648" t="s">
         <v>22</v>
       </c>
       <c r="L648">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M648" t="s">
         <v>23</v>
       </c>
       <c r="N648">
-        <v>0</v>
+        <v>0.46464646464646397</v>
       </c>
       <c r="O648" t="s">
         <v>24</v>
       </c>
       <c r="P648" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="Q648" s="1">
         <f>IF(D647=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39476,49 +39554,49 @@
         <v>16</v>
       </c>
       <c r="B649" t="s">
-        <v>1073</v>
+        <v>410</v>
       </c>
       <c r="C649" t="s">
         <v>18</v>
       </c>
       <c r="D649">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E649" t="s">
         <v>19</v>
       </c>
       <c r="F649">
-        <v>26876</v>
+        <v>50000</v>
       </c>
       <c r="G649" t="s">
         <v>20</v>
       </c>
       <c r="H649">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="I649" t="s">
         <v>21</v>
       </c>
       <c r="J649">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K649" t="s">
         <v>22</v>
       </c>
       <c r="L649">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M649" t="s">
         <v>23</v>
       </c>
       <c r="N649">
-        <v>0</v>
+        <v>0.52173913043478204</v>
       </c>
       <c r="O649" t="s">
         <v>24</v>
       </c>
       <c r="P649" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="Q649" s="1">
         <f>IF(D648=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39530,13 +39608,13 @@
         <v>16</v>
       </c>
       <c r="B650" t="s">
-        <v>1075</v>
+        <v>414</v>
       </c>
       <c r="C650" t="s">
         <v>18</v>
       </c>
       <c r="D650">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E650" t="s">
         <v>19</v>
@@ -39548,31 +39626,31 @@
         <v>20</v>
       </c>
       <c r="H650">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="I650" t="s">
         <v>21</v>
       </c>
       <c r="J650">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="K650" t="s">
         <v>22</v>
       </c>
       <c r="L650">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="M650" t="s">
         <v>23</v>
       </c>
       <c r="N650">
-        <v>5.5555555555555497E-2</v>
+        <v>0.18627450980392099</v>
       </c>
       <c r="O650" t="s">
         <v>24</v>
       </c>
       <c r="P650" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="Q650" s="1">
         <f>IF(D649=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39584,49 +39662,49 @@
         <v>16</v>
       </c>
       <c r="B651" t="s">
-        <v>1077</v>
+        <v>418</v>
       </c>
       <c r="C651" t="s">
         <v>18</v>
       </c>
       <c r="D651">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E651" t="s">
         <v>19</v>
       </c>
       <c r="F651">
-        <v>2850</v>
+        <v>50000</v>
       </c>
       <c r="G651" t="s">
         <v>20</v>
       </c>
       <c r="H651">
+        <v>251</v>
+      </c>
+      <c r="I651" t="s">
+        <v>21</v>
+      </c>
+      <c r="J651">
         <v>144</v>
       </c>
-      <c r="I651" t="s">
-        <v>21</v>
-      </c>
-      <c r="J651">
-        <v>97</v>
-      </c>
       <c r="K651" t="s">
         <v>22</v>
       </c>
       <c r="L651">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M651" t="s">
         <v>23</v>
       </c>
       <c r="N651">
-        <v>0</v>
+        <v>0.35849056603773499</v>
       </c>
       <c r="O651" t="s">
         <v>24</v>
       </c>
       <c r="P651" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="Q651" s="1">
         <f>IF(D650=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39638,49 +39716,49 @@
         <v>16</v>
       </c>
       <c r="B652" t="s">
-        <v>1079</v>
+        <v>422</v>
       </c>
       <c r="C652" t="s">
         <v>18</v>
       </c>
       <c r="D652">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="E652" t="s">
         <v>19</v>
       </c>
       <c r="F652">
-        <v>29018</v>
+        <v>50000</v>
       </c>
       <c r="G652" t="s">
         <v>20</v>
       </c>
       <c r="H652">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="I652" t="s">
         <v>21</v>
       </c>
       <c r="J652">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="K652" t="s">
         <v>22</v>
       </c>
       <c r="L652">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M652" t="s">
         <v>23</v>
       </c>
       <c r="N652">
-        <v>0</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="O652" t="s">
         <v>24</v>
       </c>
       <c r="P652" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="Q652" s="1">
         <f>IF(D651=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39692,49 +39770,49 @@
         <v>16</v>
       </c>
       <c r="B653" t="s">
-        <v>1081</v>
+        <v>426</v>
       </c>
       <c r="C653" t="s">
         <v>18</v>
       </c>
       <c r="D653">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="E653" t="s">
         <v>19</v>
       </c>
       <c r="F653">
-        <v>26060</v>
+        <v>50000</v>
       </c>
       <c r="G653" t="s">
         <v>20</v>
       </c>
       <c r="H653">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="I653" t="s">
         <v>21</v>
       </c>
       <c r="J653">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K653" t="s">
         <v>22</v>
       </c>
       <c r="L653">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="M653" t="s">
         <v>23</v>
       </c>
       <c r="N653">
-        <v>0</v>
+        <v>9.2592592592592504E-2</v>
       </c>
       <c r="O653" t="s">
         <v>24</v>
       </c>
       <c r="P653" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="Q653" s="1">
         <f>IF(D652=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39746,49 +39824,49 @@
         <v>16</v>
       </c>
       <c r="B654" t="s">
-        <v>1083</v>
+        <v>430</v>
       </c>
       <c r="C654" t="s">
         <v>18</v>
       </c>
       <c r="D654">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E654" t="s">
         <v>19</v>
       </c>
       <c r="F654">
-        <v>10010</v>
+        <v>50000</v>
       </c>
       <c r="G654" t="s">
         <v>20</v>
       </c>
       <c r="H654">
+        <v>241</v>
+      </c>
+      <c r="I654" t="s">
+        <v>21</v>
+      </c>
+      <c r="J654">
+        <v>116</v>
+      </c>
+      <c r="K654" t="s">
+        <v>22</v>
+      </c>
+      <c r="L654">
         <v>107</v>
       </c>
-      <c r="I654" t="s">
-        <v>21</v>
-      </c>
-      <c r="J654">
-        <v>84</v>
-      </c>
-      <c r="K654" t="s">
-        <v>22</v>
-      </c>
-      <c r="L654">
-        <v>84</v>
-      </c>
       <c r="M654" t="s">
         <v>23</v>
       </c>
       <c r="N654">
-        <v>0</v>
+        <v>8.4112149532710206E-2</v>
       </c>
       <c r="O654" t="s">
         <v>24</v>
       </c>
       <c r="P654" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="Q654" s="1">
         <f>IF(D653=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39800,49 +39878,49 @@
         <v>16</v>
       </c>
       <c r="B655" t="s">
-        <v>1085</v>
+        <v>434</v>
       </c>
       <c r="C655" t="s">
         <v>18</v>
       </c>
       <c r="D655">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E655" t="s">
         <v>19</v>
       </c>
       <c r="F655">
-        <v>15896</v>
+        <v>50000</v>
       </c>
       <c r="G655" t="s">
         <v>20</v>
       </c>
       <c r="H655">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="I655" t="s">
         <v>21</v>
       </c>
       <c r="J655">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K655" t="s">
         <v>22</v>
       </c>
       <c r="L655">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M655" t="s">
         <v>23</v>
       </c>
       <c r="N655">
-        <v>0</v>
+        <v>0.185567010309278</v>
       </c>
       <c r="O655" t="s">
         <v>24</v>
       </c>
       <c r="P655" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="Q655" s="1">
         <f>IF(D654=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39854,49 +39932,49 @@
         <v>16</v>
       </c>
       <c r="B656" t="s">
-        <v>1087</v>
+        <v>438</v>
       </c>
       <c r="C656" t="s">
         <v>18</v>
       </c>
       <c r="D656">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E656" t="s">
         <v>19</v>
       </c>
       <c r="F656">
-        <v>1226</v>
+        <v>50000</v>
       </c>
       <c r="G656" t="s">
         <v>20</v>
       </c>
       <c r="H656">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I656" t="s">
         <v>21</v>
       </c>
       <c r="J656">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="K656" t="s">
         <v>22</v>
       </c>
       <c r="L656">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M656" t="s">
         <v>23</v>
       </c>
       <c r="N656">
-        <v>0</v>
+        <v>0.242718446601941</v>
       </c>
       <c r="O656" t="s">
         <v>24</v>
       </c>
       <c r="P656" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="Q656" s="1">
         <f>IF(D655=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39908,13 +39986,13 @@
         <v>16</v>
       </c>
       <c r="B657" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C657" t="s">
         <v>18</v>
       </c>
       <c r="D657">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E657" t="s">
         <v>19</v>
@@ -39926,31 +40004,31 @@
         <v>20</v>
       </c>
       <c r="H657">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="I657" t="s">
         <v>21</v>
       </c>
       <c r="J657">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K657" t="s">
         <v>22</v>
       </c>
       <c r="L657">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M657" t="s">
         <v>23</v>
       </c>
       <c r="N657">
-        <v>9.9009900990098994E-3</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="O657" t="s">
         <v>24</v>
       </c>
       <c r="P657" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="Q657" s="1">
         <f>IF(D656=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -39962,13 +40040,13 @@
         <v>16</v>
       </c>
       <c r="B658" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C658" t="s">
         <v>18</v>
       </c>
       <c r="D658">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E658" t="s">
         <v>19</v>
@@ -39980,31 +40058,31 @@
         <v>20</v>
       </c>
       <c r="H658">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I658" t="s">
         <v>21</v>
       </c>
       <c r="J658">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K658" t="s">
         <v>22</v>
       </c>
       <c r="L658">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M658" t="s">
         <v>23</v>
       </c>
       <c r="N658">
-        <v>9.41176470588235E-2</v>
+        <v>0.22448979591836701</v>
       </c>
       <c r="O658" t="s">
         <v>24</v>
       </c>
       <c r="P658" t="s">
-        <v>1090</v>
+        <v>1067</v>
       </c>
       <c r="Q658" s="1">
         <f>IF(D657=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40016,13 +40094,13 @@
         <v>16</v>
       </c>
       <c r="B659" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C659" t="s">
         <v>18</v>
       </c>
       <c r="D659">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E659" t="s">
         <v>19</v>
@@ -40034,31 +40112,31 @@
         <v>20</v>
       </c>
       <c r="H659">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="I659" t="s">
         <v>21</v>
       </c>
       <c r="J659">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K659" t="s">
         <v>22</v>
       </c>
       <c r="L659">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="M659" t="s">
         <v>23</v>
       </c>
       <c r="N659">
-        <v>0.11111111111111099</v>
+        <v>0.19642857142857101</v>
       </c>
       <c r="O659" t="s">
         <v>24</v>
       </c>
       <c r="P659" t="s">
-        <v>1091</v>
+        <v>1068</v>
       </c>
       <c r="Q659" s="1">
         <f>IF(D658=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40070,49 +40148,49 @@
         <v>16</v>
       </c>
       <c r="B660" t="s">
-        <v>464</v>
+        <v>1069</v>
       </c>
       <c r="C660" t="s">
         <v>18</v>
       </c>
       <c r="D660">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E660" t="s">
         <v>19</v>
       </c>
       <c r="F660">
-        <v>50000</v>
+        <v>1614</v>
       </c>
       <c r="G660" t="s">
         <v>20</v>
       </c>
       <c r="H660">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I660" t="s">
         <v>21</v>
       </c>
       <c r="J660">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K660" t="s">
         <v>22</v>
       </c>
       <c r="L660">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M660" t="s">
         <v>23</v>
       </c>
       <c r="N660">
-        <v>0.172839506172839</v>
+        <v>0</v>
       </c>
       <c r="O660" t="s">
         <v>24</v>
       </c>
       <c r="P660" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
       <c r="Q660" s="1">
         <f>IF(D659=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40124,49 +40202,49 @@
         <v>16</v>
       </c>
       <c r="B661" t="s">
-        <v>470</v>
+        <v>1071</v>
       </c>
       <c r="C661" t="s">
         <v>18</v>
       </c>
       <c r="D661">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E661" t="s">
         <v>19</v>
       </c>
       <c r="F661">
-        <v>50000</v>
+        <v>8</v>
       </c>
       <c r="G661" t="s">
         <v>20</v>
       </c>
       <c r="H661">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="I661" t="s">
         <v>21</v>
       </c>
       <c r="J661">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K661" t="s">
         <v>22</v>
       </c>
       <c r="L661">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M661" t="s">
         <v>23</v>
       </c>
       <c r="N661">
-        <v>0.10891089108910799</v>
+        <v>0</v>
       </c>
       <c r="O661" t="s">
         <v>24</v>
       </c>
       <c r="P661" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="Q661" s="1">
         <f>IF(D660=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40178,49 +40256,49 @@
         <v>16</v>
       </c>
       <c r="B662" t="s">
-        <v>474</v>
+        <v>1073</v>
       </c>
       <c r="C662" t="s">
         <v>18</v>
       </c>
       <c r="D662">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E662" t="s">
         <v>19</v>
       </c>
       <c r="F662">
-        <v>50000</v>
+        <v>26876</v>
       </c>
       <c r="G662" t="s">
         <v>20</v>
       </c>
       <c r="H662">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I662" t="s">
         <v>21</v>
       </c>
       <c r="J662">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K662" t="s">
         <v>22</v>
       </c>
       <c r="L662">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M662" t="s">
         <v>23</v>
       </c>
       <c r="N662">
-        <v>0.19791666666666599</v>
+        <v>0</v>
       </c>
       <c r="O662" t="s">
         <v>24</v>
       </c>
       <c r="P662" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="Q662" s="1">
         <f>IF(D661=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40232,13 +40310,13 @@
         <v>16</v>
       </c>
       <c r="B663" t="s">
-        <v>478</v>
+        <v>1075</v>
       </c>
       <c r="C663" t="s">
         <v>18</v>
       </c>
       <c r="D663">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E663" t="s">
         <v>19</v>
@@ -40250,31 +40328,31 @@
         <v>20</v>
       </c>
       <c r="H663">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="I663" t="s">
         <v>21</v>
       </c>
       <c r="J663">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K663" t="s">
         <v>22</v>
       </c>
       <c r="L663">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="M663" t="s">
         <v>23</v>
       </c>
       <c r="N663">
-        <v>1.8181818181818101E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="O663" t="s">
         <v>24</v>
       </c>
       <c r="P663" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="Q663" s="1">
         <f>IF(D662=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40286,49 +40364,49 @@
         <v>16</v>
       </c>
       <c r="B664" t="s">
-        <v>480</v>
+        <v>1077</v>
       </c>
       <c r="C664" t="s">
         <v>18</v>
       </c>
       <c r="D664">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E664" t="s">
         <v>19</v>
       </c>
       <c r="F664">
-        <v>50000</v>
+        <v>2850</v>
       </c>
       <c r="G664" t="s">
         <v>20</v>
       </c>
       <c r="H664">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I664" t="s">
         <v>21</v>
       </c>
       <c r="J664">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K664" t="s">
         <v>22</v>
       </c>
       <c r="L664">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M664" t="s">
         <v>23</v>
       </c>
       <c r="N664">
-        <v>0.19047619047618999</v>
+        <v>0</v>
       </c>
       <c r="O664" t="s">
         <v>24</v>
       </c>
       <c r="P664" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="Q664" s="1">
         <f>IF(D663=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40340,49 +40418,49 @@
         <v>16</v>
       </c>
       <c r="B665" t="s">
-        <v>486</v>
+        <v>1079</v>
       </c>
       <c r="C665" t="s">
         <v>18</v>
       </c>
       <c r="D665">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E665" t="s">
         <v>19</v>
       </c>
       <c r="F665">
-        <v>50000</v>
+        <v>29018</v>
       </c>
       <c r="G665" t="s">
         <v>20</v>
       </c>
       <c r="H665">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="I665" t="s">
         <v>21</v>
       </c>
       <c r="J665">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K665" t="s">
         <v>22</v>
       </c>
       <c r="L665">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M665" t="s">
         <v>23</v>
       </c>
       <c r="N665">
-        <v>4.95049504950495E-2</v>
+        <v>0</v>
       </c>
       <c r="O665" t="s">
         <v>24</v>
       </c>
       <c r="P665" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="Q665" s="1">
         <f>IF(D664=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40394,37 +40472,37 @@
         <v>16</v>
       </c>
       <c r="B666" t="s">
-        <v>488</v>
+        <v>1081</v>
       </c>
       <c r="C666" t="s">
         <v>18</v>
       </c>
       <c r="D666">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E666" t="s">
         <v>19</v>
       </c>
       <c r="F666">
-        <v>9546</v>
+        <v>26060</v>
       </c>
       <c r="G666" t="s">
         <v>20</v>
       </c>
       <c r="H666">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I666" t="s">
         <v>21</v>
       </c>
       <c r="J666">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K666" t="s">
         <v>22</v>
       </c>
       <c r="L666">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M666" t="s">
         <v>23</v>
@@ -40436,7 +40514,7 @@
         <v>24</v>
       </c>
       <c r="P666" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="Q666" s="1">
         <f>IF(D665=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40448,49 +40526,49 @@
         <v>16</v>
       </c>
       <c r="B667" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="C667" t="s">
         <v>18</v>
       </c>
       <c r="D667">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E667" t="s">
         <v>19</v>
       </c>
       <c r="F667">
-        <v>50000</v>
+        <v>10010</v>
       </c>
       <c r="G667" t="s">
         <v>20</v>
       </c>
       <c r="H667">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="I667" t="s">
         <v>21</v>
       </c>
       <c r="J667">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="K667" t="s">
         <v>22</v>
       </c>
       <c r="L667">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M667" t="s">
         <v>23</v>
       </c>
       <c r="N667">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="O667" t="s">
         <v>24</v>
       </c>
       <c r="P667" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="Q667" s="1">
         <f>IF(D666=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40502,49 +40580,49 @@
         <v>16</v>
       </c>
       <c r="B668" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="C668" t="s">
         <v>18</v>
       </c>
       <c r="D668">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E668" t="s">
         <v>19</v>
       </c>
       <c r="F668">
-        <v>50000</v>
+        <v>15896</v>
       </c>
       <c r="G668" t="s">
         <v>20</v>
       </c>
       <c r="H668">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="I668" t="s">
         <v>21</v>
       </c>
       <c r="J668">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="K668" t="s">
         <v>22</v>
       </c>
       <c r="L668">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M668" t="s">
         <v>23</v>
       </c>
       <c r="N668">
-        <v>1.06451612903225</v>
+        <v>0</v>
       </c>
       <c r="O668" t="s">
         <v>24</v>
       </c>
       <c r="P668" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="Q668" s="1">
         <f>IF(D667=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40556,49 +40634,49 @@
         <v>16</v>
       </c>
       <c r="B669" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="C669" t="s">
         <v>18</v>
       </c>
       <c r="D669">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E669" t="s">
         <v>19</v>
       </c>
       <c r="F669">
-        <v>50000</v>
+        <v>1226</v>
       </c>
       <c r="G669" t="s">
         <v>20</v>
       </c>
       <c r="H669">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="I669" t="s">
         <v>21</v>
       </c>
       <c r="J669">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="K669" t="s">
         <v>22</v>
       </c>
       <c r="L669">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M669" t="s">
         <v>23</v>
       </c>
       <c r="N669">
-        <v>1.1666666666666601</v>
+        <v>0</v>
       </c>
       <c r="O669" t="s">
         <v>24</v>
       </c>
       <c r="P669" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="Q669" s="1">
         <f>IF(D668=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40610,13 +40688,13 @@
         <v>16</v>
       </c>
       <c r="B670" t="s">
-        <v>1105</v>
+        <v>452</v>
       </c>
       <c r="C670" t="s">
         <v>18</v>
       </c>
       <c r="D670">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E670" t="s">
         <v>19</v>
@@ -40628,31 +40706,31 @@
         <v>20</v>
       </c>
       <c r="H670">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="I670" t="s">
         <v>21</v>
       </c>
       <c r="J670">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="K670" t="s">
         <v>22</v>
       </c>
       <c r="L670">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M670" t="s">
         <v>23</v>
       </c>
       <c r="N670">
-        <v>0.82352941176470495</v>
+        <v>9.9009900990098994E-3</v>
       </c>
       <c r="O670" t="s">
         <v>24</v>
       </c>
       <c r="P670" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="Q670" s="1">
         <f>IF(D669=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40664,13 +40742,13 @@
         <v>16</v>
       </c>
       <c r="B671" t="s">
-        <v>1107</v>
+        <v>456</v>
       </c>
       <c r="C671" t="s">
         <v>18</v>
       </c>
       <c r="D671">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E671" t="s">
         <v>19</v>
@@ -40682,31 +40760,31 @@
         <v>20</v>
       </c>
       <c r="H671">
-        <v>406</v>
+        <v>148</v>
       </c>
       <c r="I671" t="s">
         <v>21</v>
       </c>
       <c r="J671">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="K671" t="s">
         <v>22</v>
       </c>
       <c r="L671">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M671" t="s">
         <v>23</v>
       </c>
       <c r="N671">
-        <v>0.81632653061224403</v>
+        <v>9.41176470588235E-2</v>
       </c>
       <c r="O671" t="s">
         <v>24</v>
       </c>
       <c r="P671" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
       <c r="Q671" s="1">
         <f>IF(D670=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40718,13 +40796,13 @@
         <v>16</v>
       </c>
       <c r="B672" t="s">
-        <v>1109</v>
+        <v>460</v>
       </c>
       <c r="C672" t="s">
         <v>18</v>
       </c>
       <c r="D672">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E672" t="s">
         <v>19</v>
@@ -40736,31 +40814,31 @@
         <v>20</v>
       </c>
       <c r="H672">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="I672" t="s">
         <v>21</v>
       </c>
       <c r="J672">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K672" t="s">
         <v>22</v>
       </c>
       <c r="L672">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M672" t="s">
         <v>23</v>
       </c>
       <c r="N672">
-        <v>0.94444444444444398</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="O672" t="s">
         <v>24</v>
       </c>
       <c r="P672" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="Q672" s="1">
         <f>IF(D671=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40772,13 +40850,13 @@
         <v>16</v>
       </c>
       <c r="B673" t="s">
-        <v>1111</v>
+        <v>464</v>
       </c>
       <c r="C673" t="s">
         <v>18</v>
       </c>
       <c r="D673">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E673" t="s">
         <v>19</v>
@@ -40790,31 +40868,31 @@
         <v>20</v>
       </c>
       <c r="H673">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="I673" t="s">
         <v>21</v>
       </c>
       <c r="J673">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="K673" t="s">
         <v>22</v>
       </c>
       <c r="L673">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M673" t="s">
         <v>23</v>
       </c>
       <c r="N673">
-        <v>1.5070422535211201</v>
+        <v>0.172839506172839</v>
       </c>
       <c r="O673" t="s">
         <v>24</v>
       </c>
       <c r="P673" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="Q673" s="1">
         <f>IF(D672=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40826,13 +40904,13 @@
         <v>16</v>
       </c>
       <c r="B674" t="s">
-        <v>1113</v>
+        <v>470</v>
       </c>
       <c r="C674" t="s">
         <v>18</v>
       </c>
       <c r="D674">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E674" t="s">
         <v>19</v>
@@ -40844,31 +40922,31 @@
         <v>20</v>
       </c>
       <c r="H674">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="I674" t="s">
         <v>21</v>
       </c>
       <c r="J674">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="K674" t="s">
         <v>22</v>
       </c>
       <c r="L674">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M674" t="s">
         <v>23</v>
       </c>
       <c r="N674">
-        <v>0.69642857142857095</v>
+        <v>0.10891089108910799</v>
       </c>
       <c r="O674" t="s">
         <v>24</v>
       </c>
       <c r="P674" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="Q674" s="1">
         <f>IF(D673=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40880,13 +40958,13 @@
         <v>16</v>
       </c>
       <c r="B675" t="s">
-        <v>1115</v>
+        <v>474</v>
       </c>
       <c r="C675" t="s">
         <v>18</v>
       </c>
       <c r="D675">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E675" t="s">
         <v>19</v>
@@ -40898,31 +40976,31 @@
         <v>20</v>
       </c>
       <c r="H675">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="I675" t="s">
         <v>21</v>
       </c>
       <c r="J675">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="K675" t="s">
         <v>22</v>
       </c>
       <c r="L675">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M675" t="s">
         <v>23</v>
       </c>
       <c r="N675">
-        <v>0.66990291262135904</v>
+        <v>0.19791666666666599</v>
       </c>
       <c r="O675" t="s">
         <v>24</v>
       </c>
       <c r="P675" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="Q675" s="1">
         <f>IF(D674=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40934,13 +41012,13 @@
         <v>16</v>
       </c>
       <c r="B676" t="s">
-        <v>1117</v>
+        <v>478</v>
       </c>
       <c r="C676" t="s">
         <v>18</v>
       </c>
       <c r="D676">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E676" t="s">
         <v>19</v>
@@ -40952,31 +41030,31 @@
         <v>20</v>
       </c>
       <c r="H676">
-        <v>330</v>
+        <v>153</v>
       </c>
       <c r="I676" t="s">
         <v>21</v>
       </c>
       <c r="J676">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="K676" t="s">
         <v>22</v>
       </c>
       <c r="L676">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M676" t="s">
         <v>23</v>
       </c>
       <c r="N676">
-        <v>1.1839080459770099</v>
+        <v>1.8181818181818101E-2</v>
       </c>
       <c r="O676" t="s">
         <v>24</v>
       </c>
       <c r="P676" t="s">
-        <v>1118</v>
+        <v>1095</v>
       </c>
       <c r="Q676" s="1">
         <f>IF(D675=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -40988,13 +41066,13 @@
         <v>16</v>
       </c>
       <c r="B677" t="s">
-        <v>1119</v>
+        <v>480</v>
       </c>
       <c r="C677" t="s">
         <v>18</v>
       </c>
       <c r="D677">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E677" t="s">
         <v>19</v>
@@ -41006,31 +41084,31 @@
         <v>20</v>
       </c>
       <c r="H677">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="I677" t="s">
         <v>21</v>
       </c>
       <c r="J677">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K677" t="s">
         <v>22</v>
       </c>
       <c r="L677">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M677" t="s">
         <v>23</v>
       </c>
       <c r="N677">
-        <v>0.51315789473684204</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="O677" t="s">
         <v>24</v>
       </c>
       <c r="P677" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="Q677" s="1">
         <f>IF(D676=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41042,13 +41120,13 @@
         <v>16</v>
       </c>
       <c r="B678" t="s">
-        <v>1121</v>
+        <v>486</v>
       </c>
       <c r="C678" t="s">
         <v>18</v>
       </c>
       <c r="D678">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E678" t="s">
         <v>19</v>
@@ -41060,31 +41138,31 @@
         <v>20</v>
       </c>
       <c r="H678">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="I678" t="s">
         <v>21</v>
       </c>
       <c r="J678">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K678" t="s">
         <v>22</v>
       </c>
       <c r="L678">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M678" t="s">
         <v>23</v>
       </c>
       <c r="N678">
-        <v>0.55952380952380898</v>
+        <v>4.95049504950495E-2</v>
       </c>
       <c r="O678" t="s">
         <v>24</v>
       </c>
       <c r="P678" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="Q678" s="1">
         <f>IF(D677=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41096,49 +41174,49 @@
         <v>16</v>
       </c>
       <c r="B679" t="s">
-        <v>1123</v>
+        <v>488</v>
       </c>
       <c r="C679" t="s">
         <v>18</v>
       </c>
       <c r="D679">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E679" t="s">
         <v>19</v>
       </c>
       <c r="F679">
-        <v>50000</v>
+        <v>9546</v>
       </c>
       <c r="G679" t="s">
         <v>20</v>
       </c>
       <c r="H679">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="I679" t="s">
         <v>21</v>
       </c>
       <c r="J679">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="K679" t="s">
         <v>22</v>
       </c>
       <c r="L679">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M679" t="s">
         <v>23</v>
       </c>
       <c r="N679">
-        <v>0.38775510204081598</v>
+        <v>0</v>
       </c>
       <c r="O679" t="s">
         <v>24</v>
       </c>
       <c r="P679" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
       <c r="Q679" s="1">
         <f>IF(D678=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41150,13 +41228,13 @@
         <v>16</v>
       </c>
       <c r="B680" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
       <c r="C680" t="s">
         <v>18</v>
       </c>
       <c r="D680">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E680" t="s">
         <v>19</v>
@@ -41168,31 +41246,31 @@
         <v>20</v>
       </c>
       <c r="H680">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="I680" t="s">
         <v>21</v>
       </c>
       <c r="J680">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="K680" t="s">
         <v>22</v>
       </c>
       <c r="L680">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M680" t="s">
         <v>23</v>
       </c>
       <c r="N680">
-        <v>0.31111111111111101</v>
+        <v>1.28</v>
       </c>
       <c r="O680" t="s">
         <v>24</v>
       </c>
       <c r="P680" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
       <c r="Q680" s="1">
         <f>IF(D679=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41204,13 +41282,13 @@
         <v>16</v>
       </c>
       <c r="B681" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
       <c r="C681" t="s">
         <v>18</v>
       </c>
       <c r="D681">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E681" t="s">
         <v>19</v>
@@ -41222,31 +41300,31 @@
         <v>20</v>
       </c>
       <c r="H681">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="I681" t="s">
         <v>21</v>
       </c>
       <c r="J681">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K681" t="s">
         <v>22</v>
       </c>
       <c r="L681">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M681" t="s">
         <v>23</v>
       </c>
       <c r="N681">
-        <v>0.42352941176470499</v>
+        <v>1.06451612903225</v>
       </c>
       <c r="O681" t="s">
         <v>24</v>
       </c>
       <c r="P681" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
       <c r="Q681" s="1">
         <f>IF(D680=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41258,13 +41336,13 @@
         <v>16</v>
       </c>
       <c r="B682" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
       <c r="C682" t="s">
         <v>18</v>
       </c>
       <c r="D682">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E682" t="s">
         <v>19</v>
@@ -41276,31 +41354,31 @@
         <v>20</v>
       </c>
       <c r="H682">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="I682" t="s">
         <v>21</v>
       </c>
       <c r="J682">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K682" t="s">
         <v>22</v>
       </c>
       <c r="L682">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M682" t="s">
         <v>23</v>
       </c>
       <c r="N682">
-        <v>0.73563218390804597</v>
+        <v>1.1666666666666601</v>
       </c>
       <c r="O682" t="s">
         <v>24</v>
       </c>
       <c r="P682" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="Q682" s="1">
         <f>IF(D681=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41312,13 +41390,13 @@
         <v>16</v>
       </c>
       <c r="B683" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="C683" t="s">
         <v>18</v>
       </c>
       <c r="D683">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E683" t="s">
         <v>19</v>
@@ -41330,31 +41408,31 @@
         <v>20</v>
       </c>
       <c r="H683">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="I683" t="s">
         <v>21</v>
       </c>
       <c r="J683">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K683" t="s">
         <v>22</v>
       </c>
       <c r="L683">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M683" t="s">
         <v>23</v>
       </c>
       <c r="N683">
-        <v>0.4375</v>
+        <v>0.82352941176470495</v>
       </c>
       <c r="O683" t="s">
         <v>24</v>
       </c>
       <c r="P683" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="Q683" s="1">
         <f>IF(D682=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41366,13 +41444,13 @@
         <v>16</v>
       </c>
       <c r="B684" t="s">
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="C684" t="s">
         <v>18</v>
       </c>
       <c r="D684">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E684" t="s">
         <v>19</v>
@@ -41384,31 +41462,31 @@
         <v>20</v>
       </c>
       <c r="H684">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="I684" t="s">
         <v>21</v>
       </c>
       <c r="J684">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="K684" t="s">
         <v>22</v>
       </c>
       <c r="L684">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M684" t="s">
         <v>23</v>
       </c>
       <c r="N684">
-        <v>0.462365591397849</v>
+        <v>0.81632653061224403</v>
       </c>
       <c r="O684" t="s">
         <v>24</v>
       </c>
       <c r="P684" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="Q684" s="1">
         <f>IF(D683=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41420,13 +41498,13 @@
         <v>16</v>
       </c>
       <c r="B685" t="s">
-        <v>1135</v>
+        <v>1109</v>
       </c>
       <c r="C685" t="s">
         <v>18</v>
       </c>
       <c r="D685">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E685" t="s">
         <v>19</v>
@@ -41438,31 +41516,31 @@
         <v>20</v>
       </c>
       <c r="H685">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="I685" t="s">
         <v>21</v>
       </c>
       <c r="J685">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="K685" t="s">
         <v>22</v>
       </c>
       <c r="L685">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M685" t="s">
         <v>23</v>
       </c>
       <c r="N685">
-        <v>0.70769230769230695</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="O685" t="s">
         <v>24</v>
       </c>
       <c r="P685" t="s">
-        <v>1136</v>
+        <v>1110</v>
       </c>
       <c r="Q685" s="1">
         <f>IF(D684=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41474,13 +41552,13 @@
         <v>16</v>
       </c>
       <c r="B686" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
       <c r="C686" t="s">
         <v>18</v>
       </c>
       <c r="D686">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E686" t="s">
         <v>19</v>
@@ -41492,31 +41570,31 @@
         <v>20</v>
       </c>
       <c r="H686">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="I686" t="s">
         <v>21</v>
       </c>
       <c r="J686">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="K686" t="s">
         <v>22</v>
       </c>
       <c r="L686">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M686" t="s">
         <v>23</v>
       </c>
       <c r="N686">
-        <v>0.30379746835443</v>
+        <v>1.5070422535211201</v>
       </c>
       <c r="O686" t="s">
         <v>24</v>
       </c>
       <c r="P686" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
       <c r="Q686" s="1">
         <f>IF(D685=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41528,13 +41606,13 @@
         <v>16</v>
       </c>
       <c r="B687" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
       <c r="C687" t="s">
         <v>18</v>
       </c>
       <c r="D687">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E687" t="s">
         <v>19</v>
@@ -41546,31 +41624,31 @@
         <v>20</v>
       </c>
       <c r="H687">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="I687" t="s">
         <v>21</v>
       </c>
       <c r="J687">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="K687" t="s">
         <v>22</v>
       </c>
       <c r="L687">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="M687" t="s">
         <v>23</v>
       </c>
       <c r="N687">
-        <v>0.12631578947368399</v>
+        <v>0.69642857142857095</v>
       </c>
       <c r="O687" t="s">
         <v>24</v>
       </c>
       <c r="P687" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="Q687" s="1">
         <f>IF(D686=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41582,13 +41660,13 @@
         <v>16</v>
       </c>
       <c r="B688" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="C688" t="s">
         <v>18</v>
       </c>
       <c r="D688">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E688" t="s">
         <v>19</v>
@@ -41600,31 +41678,31 @@
         <v>20</v>
       </c>
       <c r="H688">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="I688" t="s">
         <v>21</v>
       </c>
       <c r="J688">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="K688" t="s">
         <v>22</v>
       </c>
       <c r="L688">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M688" t="s">
         <v>23</v>
       </c>
       <c r="N688">
-        <v>0.22891566265060201</v>
+        <v>0.66990291262135904</v>
       </c>
       <c r="O688" t="s">
         <v>24</v>
       </c>
       <c r="P688" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
       <c r="Q688" s="1">
         <f>IF(D687=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41636,13 +41714,13 @@
         <v>16</v>
       </c>
       <c r="B689" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="C689" t="s">
         <v>18</v>
       </c>
       <c r="D689">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E689" t="s">
         <v>19</v>
@@ -41654,31 +41732,31 @@
         <v>20</v>
       </c>
       <c r="H689">
-        <v>229</v>
+        <v>330</v>
       </c>
       <c r="I689" t="s">
         <v>21</v>
       </c>
       <c r="J689">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="K689" t="s">
         <v>22</v>
       </c>
       <c r="L689">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M689" t="s">
         <v>23</v>
       </c>
       <c r="N689">
-        <v>0.31111111111111101</v>
+        <v>1.1839080459770099</v>
       </c>
       <c r="O689" t="s">
         <v>24</v>
       </c>
       <c r="P689" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
       <c r="Q689" s="1">
         <f>IF(D688=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41690,13 +41768,13 @@
         <v>16</v>
       </c>
       <c r="B690" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="C690" t="s">
         <v>18</v>
       </c>
       <c r="D690">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E690" t="s">
         <v>19</v>
@@ -41708,31 +41786,31 @@
         <v>20</v>
       </c>
       <c r="H690">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I690" t="s">
         <v>21</v>
       </c>
       <c r="J690">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K690" t="s">
         <v>22</v>
       </c>
       <c r="L690">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M690" t="s">
         <v>23</v>
       </c>
       <c r="N690">
-        <v>0.19318181818181801</v>
+        <v>0.51315789473684204</v>
       </c>
       <c r="O690" t="s">
         <v>24</v>
       </c>
       <c r="P690" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="Q690" s="1">
         <f>IF(D689=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41744,13 +41822,13 @@
         <v>16</v>
       </c>
       <c r="B691" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="C691" t="s">
         <v>18</v>
       </c>
       <c r="D691">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E691" t="s">
         <v>19</v>
@@ -41762,31 +41840,31 @@
         <v>20</v>
       </c>
       <c r="H691">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="I691" t="s">
         <v>21</v>
       </c>
       <c r="J691">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K691" t="s">
         <v>22</v>
       </c>
       <c r="L691">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M691" t="s">
         <v>23</v>
       </c>
       <c r="N691">
-        <v>0.25842696629213402</v>
+        <v>0.55952380952380898</v>
       </c>
       <c r="O691" t="s">
         <v>24</v>
       </c>
       <c r="P691" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="Q691" s="1">
         <f>IF(D690=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41798,13 +41876,13 @@
         <v>16</v>
       </c>
       <c r="B692" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="C692" t="s">
         <v>18</v>
       </c>
       <c r="D692">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E692" t="s">
         <v>19</v>
@@ -41816,31 +41894,31 @@
         <v>20</v>
       </c>
       <c r="H692">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="I692" t="s">
         <v>21</v>
       </c>
       <c r="J692">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K692" t="s">
         <v>22</v>
       </c>
       <c r="L692">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M692" t="s">
         <v>23</v>
       </c>
       <c r="N692">
-        <v>0.28571428571428498</v>
+        <v>0.38775510204081598</v>
       </c>
       <c r="O692" t="s">
         <v>24</v>
       </c>
       <c r="P692" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
       <c r="Q692" s="1">
         <f>IF(D691=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41852,13 +41930,13 @@
         <v>16</v>
       </c>
       <c r="B693" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="C693" t="s">
         <v>18</v>
       </c>
       <c r="D693">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E693" t="s">
         <v>19</v>
@@ -41870,31 +41948,31 @@
         <v>20</v>
       </c>
       <c r="H693">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I693" t="s">
         <v>21</v>
       </c>
       <c r="J693">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K693" t="s">
         <v>22</v>
       </c>
       <c r="L693">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M693" t="s">
         <v>23</v>
       </c>
       <c r="N693">
-        <v>0.207317073170731</v>
+        <v>0.31111111111111101</v>
       </c>
       <c r="O693" t="s">
         <v>24</v>
       </c>
       <c r="P693" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="Q693" s="1">
         <f>IF(D692=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41906,13 +41984,13 @@
         <v>16</v>
       </c>
       <c r="B694" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="C694" t="s">
         <v>18</v>
       </c>
       <c r="D694">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E694" t="s">
         <v>19</v>
@@ -41924,31 +42002,31 @@
         <v>20</v>
       </c>
       <c r="H694">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="I694" t="s">
         <v>21</v>
       </c>
       <c r="J694">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="K694" t="s">
         <v>22</v>
       </c>
       <c r="L694">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M694" t="s">
         <v>23</v>
       </c>
       <c r="N694">
-        <v>0.13793103448275801</v>
+        <v>0.42352941176470499</v>
       </c>
       <c r="O694" t="s">
         <v>24</v>
       </c>
       <c r="P694" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="Q694" s="1">
         <f>IF(D693=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -41960,13 +42038,13 @@
         <v>16</v>
       </c>
       <c r="B695" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
       <c r="C695" t="s">
         <v>18</v>
       </c>
       <c r="D695">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E695" t="s">
         <v>19</v>
@@ -41978,13 +42056,13 @@
         <v>20</v>
       </c>
       <c r="H695">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="I695" t="s">
         <v>21</v>
       </c>
       <c r="J695">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="K695" t="s">
         <v>22</v>
@@ -41996,13 +42074,13 @@
         <v>23</v>
       </c>
       <c r="N695">
-        <v>0.10344827586206801</v>
+        <v>0.73563218390804597</v>
       </c>
       <c r="O695" t="s">
         <v>24</v>
       </c>
       <c r="P695" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="Q695" s="1">
         <f>IF(D694=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42014,13 +42092,13 @@
         <v>16</v>
       </c>
       <c r="B696" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="C696" t="s">
         <v>18</v>
       </c>
       <c r="D696">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E696" t="s">
         <v>19</v>
@@ -42032,31 +42110,31 @@
         <v>20</v>
       </c>
       <c r="H696">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="I696" t="s">
         <v>21</v>
       </c>
       <c r="J696">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="K696" t="s">
         <v>22</v>
       </c>
       <c r="L696">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M696" t="s">
         <v>23</v>
       </c>
       <c r="N696">
-        <v>0.30120481927710802</v>
+        <v>0.4375</v>
       </c>
       <c r="O696" t="s">
         <v>24</v>
       </c>
       <c r="P696" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="Q696" s="1">
         <f>IF(D695=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42068,13 +42146,13 @@
         <v>16</v>
       </c>
       <c r="B697" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
       <c r="C697" t="s">
         <v>18</v>
       </c>
       <c r="D697">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E697" t="s">
         <v>19</v>
@@ -42086,31 +42164,31 @@
         <v>20</v>
       </c>
       <c r="H697">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="I697" t="s">
         <v>21</v>
       </c>
       <c r="J697">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K697" t="s">
         <v>22</v>
       </c>
       <c r="L697">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M697" t="s">
         <v>23</v>
       </c>
       <c r="N697">
-        <v>4.54545454545454E-2</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="O697" t="s">
         <v>24</v>
       </c>
       <c r="P697" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="Q697" s="1">
         <f>IF(D696=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42122,13 +42200,13 @@
         <v>16</v>
       </c>
       <c r="B698" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
       <c r="C698" t="s">
         <v>18</v>
       </c>
       <c r="D698">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E698" t="s">
         <v>19</v>
@@ -42140,31 +42218,31 @@
         <v>20</v>
       </c>
       <c r="H698">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="I698" t="s">
         <v>21</v>
       </c>
       <c r="J698">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K698" t="s">
         <v>22</v>
       </c>
       <c r="L698">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M698" t="s">
         <v>23</v>
       </c>
       <c r="N698">
-        <v>3.5714285714285698E-2</v>
+        <v>0.70769230769230695</v>
       </c>
       <c r="O698" t="s">
         <v>24</v>
       </c>
       <c r="P698" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
       <c r="Q698" s="1">
         <f>IF(D697=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42176,13 +42254,13 @@
         <v>16</v>
       </c>
       <c r="B699" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="C699" t="s">
         <v>18</v>
       </c>
       <c r="D699">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E699" t="s">
         <v>19</v>
@@ -42194,31 +42272,31 @@
         <v>20</v>
       </c>
       <c r="H699">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="I699" t="s">
         <v>21</v>
       </c>
       <c r="J699">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K699" t="s">
         <v>22</v>
       </c>
       <c r="L699">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M699" t="s">
         <v>23</v>
       </c>
       <c r="N699">
-        <v>4.2553191489361701E-2</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="O699" t="s">
         <v>24</v>
       </c>
       <c r="P699" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="Q699" s="1">
         <f>IF(D698=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42230,13 +42308,13 @@
         <v>16</v>
       </c>
       <c r="B700" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
       <c r="C700" t="s">
         <v>18</v>
       </c>
       <c r="D700">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E700" t="s">
         <v>19</v>
@@ -42248,31 +42326,31 @@
         <v>20</v>
       </c>
       <c r="H700">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I700" t="s">
         <v>21</v>
       </c>
       <c r="J700">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K700" t="s">
         <v>22</v>
       </c>
       <c r="L700">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M700" t="s">
         <v>23</v>
       </c>
       <c r="N700">
-        <v>6.8965517241379296E-2</v>
+        <v>0.12631578947368399</v>
       </c>
       <c r="O700" t="s">
         <v>24</v>
       </c>
       <c r="P700" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="Q700" s="1">
         <f>IF(D699=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42284,13 +42362,13 @@
         <v>16</v>
       </c>
       <c r="B701" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
       <c r="C701" t="s">
         <v>18</v>
       </c>
       <c r="D701">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E701" t="s">
         <v>19</v>
@@ -42302,31 +42380,31 @@
         <v>20</v>
       </c>
       <c r="H701">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="I701" t="s">
         <v>21</v>
       </c>
       <c r="J701">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K701" t="s">
         <v>22</v>
       </c>
       <c r="L701">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M701" t="s">
         <v>23</v>
       </c>
       <c r="N701">
-        <v>0.17499999999999999</v>
+        <v>0.22891566265060201</v>
       </c>
       <c r="O701" t="s">
         <v>24</v>
       </c>
       <c r="P701" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
       <c r="Q701" s="1">
         <f>IF(D700=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42338,49 +42416,49 @@
         <v>16</v>
       </c>
       <c r="B702" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="C702" t="s">
         <v>18</v>
       </c>
       <c r="D702">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E702" t="s">
         <v>19</v>
       </c>
       <c r="F702">
+        <v>50000</v>
+      </c>
+      <c r="G702" t="s">
+        <v>20</v>
+      </c>
+      <c r="H702">
+        <v>229</v>
+      </c>
+      <c r="I702" t="s">
+        <v>21</v>
+      </c>
+      <c r="J702">
+        <v>118</v>
+      </c>
+      <c r="K702" t="s">
+        <v>22</v>
+      </c>
+      <c r="L702">
         <v>90</v>
       </c>
-      <c r="G702" t="s">
-        <v>20</v>
-      </c>
-      <c r="H702">
-        <v>48</v>
-      </c>
-      <c r="I702" t="s">
-        <v>21</v>
-      </c>
-      <c r="J702">
-        <v>114</v>
-      </c>
-      <c r="K702" t="s">
-        <v>22</v>
-      </c>
-      <c r="L702">
-        <v>114</v>
-      </c>
       <c r="M702" t="s">
         <v>23</v>
       </c>
       <c r="N702">
-        <v>0</v>
+        <v>0.31111111111111101</v>
       </c>
       <c r="O702" t="s">
         <v>24</v>
       </c>
       <c r="P702" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="Q702" s="1">
         <f>IF(D701=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42392,13 +42470,13 @@
         <v>16</v>
       </c>
       <c r="B703" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="C703" t="s">
         <v>18</v>
       </c>
       <c r="D703">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E703" t="s">
         <v>19</v>
@@ -42410,31 +42488,31 @@
         <v>20</v>
       </c>
       <c r="H703">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I703" t="s">
         <v>21</v>
       </c>
       <c r="J703">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K703" t="s">
         <v>22</v>
       </c>
       <c r="L703">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M703" t="s">
         <v>23</v>
       </c>
       <c r="N703">
-        <v>0.10204081632653</v>
+        <v>0.19318181818181801</v>
       </c>
       <c r="O703" t="s">
         <v>24</v>
       </c>
       <c r="P703" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="Q703" s="1">
         <f>IF(D702=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42446,13 +42524,13 @@
         <v>16</v>
       </c>
       <c r="B704" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="C704" t="s">
         <v>18</v>
       </c>
       <c r="D704">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E704" t="s">
         <v>19</v>
@@ -42464,31 +42542,31 @@
         <v>20</v>
       </c>
       <c r="H704">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="I704" t="s">
         <v>21</v>
       </c>
       <c r="J704">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K704" t="s">
         <v>22</v>
       </c>
       <c r="L704">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M704" t="s">
         <v>23</v>
       </c>
       <c r="N704">
-        <v>0.05</v>
+        <v>0.25842696629213402</v>
       </c>
       <c r="O704" t="s">
         <v>24</v>
       </c>
       <c r="P704" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="Q704" s="1">
         <f>IF(D703=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42500,13 +42578,13 @@
         <v>16</v>
       </c>
       <c r="B705" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="C705" t="s">
         <v>18</v>
       </c>
       <c r="D705">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="E705" t="s">
         <v>19</v>
@@ -42518,31 +42596,31 @@
         <v>20</v>
       </c>
       <c r="H705">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="I705" t="s">
         <v>21</v>
       </c>
       <c r="J705">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="K705" t="s">
         <v>22</v>
       </c>
       <c r="L705">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M705" t="s">
         <v>23</v>
       </c>
       <c r="N705">
-        <v>0.05</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="O705" t="s">
         <v>24</v>
       </c>
       <c r="P705" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="Q705" s="1">
         <f>IF(D704=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42554,13 +42632,13 @@
         <v>16</v>
       </c>
       <c r="B706" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
       <c r="C706" t="s">
         <v>18</v>
       </c>
       <c r="D706">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E706" t="s">
         <v>19</v>
@@ -42572,31 +42650,31 @@
         <v>20</v>
       </c>
       <c r="H706">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="I706" t="s">
         <v>21</v>
       </c>
       <c r="J706">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K706" t="s">
         <v>22</v>
       </c>
       <c r="L706">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M706" t="s">
         <v>23</v>
       </c>
       <c r="N706">
-        <v>5.7471264367816001E-2</v>
+        <v>0.207317073170731</v>
       </c>
       <c r="O706" t="s">
         <v>24</v>
       </c>
       <c r="P706" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="Q706" s="1">
         <f>IF(D705=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
@@ -42605,15 +42683,717 @@
     </row>
     <row r="707" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
+        <v>16</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C707" t="s">
+        <v>18</v>
+      </c>
+      <c r="D707">
+        <v>588</v>
+      </c>
+      <c r="E707" t="s">
+        <v>19</v>
+      </c>
+      <c r="F707">
+        <v>50000</v>
+      </c>
+      <c r="G707" t="s">
+        <v>20</v>
+      </c>
+      <c r="H707">
+        <v>250</v>
+      </c>
+      <c r="I707" t="s">
+        <v>21</v>
+      </c>
+      <c r="J707">
+        <v>99</v>
+      </c>
+      <c r="K707" t="s">
+        <v>22</v>
+      </c>
+      <c r="L707">
+        <v>87</v>
+      </c>
+      <c r="M707" t="s">
+        <v>23</v>
+      </c>
+      <c r="N707">
+        <v>0.13793103448275801</v>
+      </c>
+      <c r="O707" t="s">
+        <v>24</v>
+      </c>
+      <c r="P707" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q707" s="1">
+        <f>IF(D706=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>16</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C708" t="s">
+        <v>18</v>
+      </c>
+      <c r="D708">
+        <v>589</v>
+      </c>
+      <c r="E708" t="s">
+        <v>19</v>
+      </c>
+      <c r="F708">
+        <v>50000</v>
+      </c>
+      <c r="G708" t="s">
+        <v>20</v>
+      </c>
+      <c r="H708">
+        <v>175</v>
+      </c>
+      <c r="I708" t="s">
+        <v>21</v>
+      </c>
+      <c r="J708">
+        <v>96</v>
+      </c>
+      <c r="K708" t="s">
+        <v>22</v>
+      </c>
+      <c r="L708">
+        <v>87</v>
+      </c>
+      <c r="M708" t="s">
+        <v>23</v>
+      </c>
+      <c r="N708">
+        <v>0.10344827586206801</v>
+      </c>
+      <c r="O708" t="s">
+        <v>24</v>
+      </c>
+      <c r="P708" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q708" s="1">
+        <f>IF(D707=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>16</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C709" t="s">
+        <v>18</v>
+      </c>
+      <c r="D709">
+        <v>590</v>
+      </c>
+      <c r="E709" t="s">
+        <v>19</v>
+      </c>
+      <c r="F709">
+        <v>50000</v>
+      </c>
+      <c r="G709" t="s">
+        <v>20</v>
+      </c>
+      <c r="H709">
+        <v>197</v>
+      </c>
+      <c r="I709" t="s">
+        <v>21</v>
+      </c>
+      <c r="J709">
+        <v>108</v>
+      </c>
+      <c r="K709" t="s">
+        <v>22</v>
+      </c>
+      <c r="L709">
+        <v>83</v>
+      </c>
+      <c r="M709" t="s">
+        <v>23</v>
+      </c>
+      <c r="N709">
+        <v>0.30120481927710802</v>
+      </c>
+      <c r="O709" t="s">
+        <v>24</v>
+      </c>
+      <c r="P709" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q709" s="1">
+        <f>IF(D708=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>16</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C710" t="s">
+        <v>18</v>
+      </c>
+      <c r="D710">
+        <v>591</v>
+      </c>
+      <c r="E710" t="s">
+        <v>19</v>
+      </c>
+      <c r="F710">
+        <v>50000</v>
+      </c>
+      <c r="G710" t="s">
+        <v>20</v>
+      </c>
+      <c r="H710">
+        <v>203</v>
+      </c>
+      <c r="I710" t="s">
+        <v>21</v>
+      </c>
+      <c r="J710">
+        <v>92</v>
+      </c>
+      <c r="K710" t="s">
+        <v>22</v>
+      </c>
+      <c r="L710">
+        <v>88</v>
+      </c>
+      <c r="M710" t="s">
+        <v>23</v>
+      </c>
+      <c r="N710">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="O710" t="s">
+        <v>24</v>
+      </c>
+      <c r="P710" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q710" s="1">
+        <f>IF(D709=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>16</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C711" t="s">
+        <v>18</v>
+      </c>
+      <c r="D711">
+        <v>592</v>
+      </c>
+      <c r="E711" t="s">
+        <v>19</v>
+      </c>
+      <c r="F711">
+        <v>50000</v>
+      </c>
+      <c r="G711" t="s">
+        <v>20</v>
+      </c>
+      <c r="H711">
+        <v>227</v>
+      </c>
+      <c r="I711" t="s">
+        <v>21</v>
+      </c>
+      <c r="J711">
+        <v>87</v>
+      </c>
+      <c r="K711" t="s">
+        <v>22</v>
+      </c>
+      <c r="L711">
+        <v>84</v>
+      </c>
+      <c r="M711" t="s">
+        <v>23</v>
+      </c>
+      <c r="N711">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="O711" t="s">
+        <v>24</v>
+      </c>
+      <c r="P711" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q711" s="1">
+        <f>IF(D710=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>16</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C712" t="s">
+        <v>18</v>
+      </c>
+      <c r="D712">
+        <v>593</v>
+      </c>
+      <c r="E712" t="s">
+        <v>19</v>
+      </c>
+      <c r="F712">
+        <v>50000</v>
+      </c>
+      <c r="G712" t="s">
+        <v>20</v>
+      </c>
+      <c r="H712">
+        <v>186</v>
+      </c>
+      <c r="I712" t="s">
+        <v>21</v>
+      </c>
+      <c r="J712">
+        <v>98</v>
+      </c>
+      <c r="K712" t="s">
+        <v>22</v>
+      </c>
+      <c r="L712">
+        <v>94</v>
+      </c>
+      <c r="M712" t="s">
+        <v>23</v>
+      </c>
+      <c r="N712">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="O712" t="s">
+        <v>24</v>
+      </c>
+      <c r="P712" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q712" s="1">
+        <f>IF(D711=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>16</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C713" t="s">
+        <v>18</v>
+      </c>
+      <c r="D713">
+        <v>594</v>
+      </c>
+      <c r="E713" t="s">
+        <v>19</v>
+      </c>
+      <c r="F713">
+        <v>50000</v>
+      </c>
+      <c r="G713" t="s">
+        <v>20</v>
+      </c>
+      <c r="H713">
+        <v>238</v>
+      </c>
+      <c r="I713" t="s">
+        <v>21</v>
+      </c>
+      <c r="J713">
+        <v>93</v>
+      </c>
+      <c r="K713" t="s">
+        <v>22</v>
+      </c>
+      <c r="L713">
+        <v>87</v>
+      </c>
+      <c r="M713" t="s">
+        <v>23</v>
+      </c>
+      <c r="N713">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="O713" t="s">
+        <v>24</v>
+      </c>
+      <c r="P713" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q713" s="1">
+        <f>IF(D712=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>16</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C714" t="s">
+        <v>18</v>
+      </c>
+      <c r="D714">
+        <v>595</v>
+      </c>
+      <c r="E714" t="s">
+        <v>19</v>
+      </c>
+      <c r="F714">
+        <v>50000</v>
+      </c>
+      <c r="G714" t="s">
+        <v>20</v>
+      </c>
+      <c r="H714">
+        <v>231</v>
+      </c>
+      <c r="I714" t="s">
+        <v>21</v>
+      </c>
+      <c r="J714">
+        <v>94</v>
+      </c>
+      <c r="K714" t="s">
+        <v>22</v>
+      </c>
+      <c r="L714">
+        <v>80</v>
+      </c>
+      <c r="M714" t="s">
+        <v>23</v>
+      </c>
+      <c r="N714">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O714" t="s">
+        <v>24</v>
+      </c>
+      <c r="P714" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q714" s="1">
+        <f>IF(D713=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>16</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C715" t="s">
+        <v>18</v>
+      </c>
+      <c r="D715">
+        <v>596</v>
+      </c>
+      <c r="E715" t="s">
+        <v>19</v>
+      </c>
+      <c r="F715">
+        <v>90</v>
+      </c>
+      <c r="G715" t="s">
+        <v>20</v>
+      </c>
+      <c r="H715">
+        <v>48</v>
+      </c>
+      <c r="I715" t="s">
+        <v>21</v>
+      </c>
+      <c r="J715">
+        <v>114</v>
+      </c>
+      <c r="K715" t="s">
+        <v>22</v>
+      </c>
+      <c r="L715">
+        <v>114</v>
+      </c>
+      <c r="M715" t="s">
+        <v>23</v>
+      </c>
+      <c r="N715">
+        <v>0</v>
+      </c>
+      <c r="O715" t="s">
+        <v>24</v>
+      </c>
+      <c r="P715" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q715" s="1">
+        <f>IF(D714=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>16</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C716" t="s">
+        <v>18</v>
+      </c>
+      <c r="D716">
+        <v>597</v>
+      </c>
+      <c r="E716" t="s">
+        <v>19</v>
+      </c>
+      <c r="F716">
+        <v>50000</v>
+      </c>
+      <c r="G716" t="s">
+        <v>20</v>
+      </c>
+      <c r="H716">
+        <v>220</v>
+      </c>
+      <c r="I716" t="s">
+        <v>21</v>
+      </c>
+      <c r="J716">
+        <v>108</v>
+      </c>
+      <c r="K716" t="s">
+        <v>22</v>
+      </c>
+      <c r="L716">
+        <v>98</v>
+      </c>
+      <c r="M716" t="s">
+        <v>23</v>
+      </c>
+      <c r="N716">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="O716" t="s">
+        <v>24</v>
+      </c>
+      <c r="P716" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q716" s="1">
+        <f>IF(D715=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>16</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C717" t="s">
+        <v>18</v>
+      </c>
+      <c r="D717">
+        <v>598</v>
+      </c>
+      <c r="E717" t="s">
+        <v>19</v>
+      </c>
+      <c r="F717">
+        <v>50000</v>
+      </c>
+      <c r="G717" t="s">
+        <v>20</v>
+      </c>
+      <c r="H717">
+        <v>195</v>
+      </c>
+      <c r="I717" t="s">
+        <v>21</v>
+      </c>
+      <c r="J717">
+        <v>84</v>
+      </c>
+      <c r="K717" t="s">
+        <v>22</v>
+      </c>
+      <c r="L717">
+        <v>80</v>
+      </c>
+      <c r="M717" t="s">
+        <v>23</v>
+      </c>
+      <c r="N717">
+        <v>0.05</v>
+      </c>
+      <c r="O717" t="s">
+        <v>24</v>
+      </c>
+      <c r="P717" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q717" s="1">
+        <f>IF(D716=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>16</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C718" t="s">
+        <v>18</v>
+      </c>
+      <c r="D718">
+        <v>599</v>
+      </c>
+      <c r="E718" t="s">
+        <v>19</v>
+      </c>
+      <c r="F718">
+        <v>50000</v>
+      </c>
+      <c r="G718" t="s">
+        <v>20</v>
+      </c>
+      <c r="H718">
+        <v>169</v>
+      </c>
+      <c r="I718" t="s">
+        <v>21</v>
+      </c>
+      <c r="J718">
+        <v>84</v>
+      </c>
+      <c r="K718" t="s">
+        <v>22</v>
+      </c>
+      <c r="L718">
+        <v>80</v>
+      </c>
+      <c r="M718" t="s">
+        <v>23</v>
+      </c>
+      <c r="N718">
+        <v>0.05</v>
+      </c>
+      <c r="O718" t="s">
+        <v>24</v>
+      </c>
+      <c r="P718" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q718" s="1">
+        <f>IF(D717=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>16</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C719" t="s">
+        <v>18</v>
+      </c>
+      <c r="D719">
+        <v>600</v>
+      </c>
+      <c r="E719" t="s">
+        <v>19</v>
+      </c>
+      <c r="F719">
+        <v>50000</v>
+      </c>
+      <c r="G719" t="s">
+        <v>20</v>
+      </c>
+      <c r="H719">
+        <v>197</v>
+      </c>
+      <c r="I719" t="s">
+        <v>21</v>
+      </c>
+      <c r="J719">
+        <v>92</v>
+      </c>
+      <c r="K719" t="s">
+        <v>22</v>
+      </c>
+      <c r="L719">
+        <v>87</v>
+      </c>
+      <c r="M719" t="s">
+        <v>23</v>
+      </c>
+      <c r="N719">
+        <v>5.7471264367816001E-2</v>
+      </c>
+      <c r="O719" t="s">
+        <v>24</v>
+      </c>
+      <c r="P719" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q719" s="1">
+        <f>IF(D718=Tabelle_ausgabe[[#This Row],[Spalte4]],0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
         <v>1179</v>
       </c>
-      <c r="N707">
+      <c r="N720">
         <f>SUBTOTAL(101,Tabelle_ausgabe[Spalte14])</f>
-        <v>0.41488713408140332</v>
-      </c>
-      <c r="P707">
+        <v>0.40650096871198571</v>
+      </c>
+      <c r="P720">
         <f>SUBTOTAL(103,Tabelle_ausgabe[Spalte16])</f>
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
